--- a/MAP/map03.xlsx
+++ b/MAP/map03.xlsx
@@ -34,12 +34,19 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,18 +201,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -518,16 +519,13 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -536,121 +534,125 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -721,7 +723,35 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="7" tint="-0.499984740745262"/>
+          <bgColor theme="4" tint="-0.249946592608417"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.599963377788629"/>
         </patternFill>
       </fill>
     </dxf>
@@ -735,35 +765,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.599963377788629"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="-0.249946592608417"/>
+          <bgColor theme="7" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1035,10 +1037,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CV45"/>
+  <dimension ref="A1:EJ45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BL1" workbookViewId="0">
-      <selection activeCell="DD9" sqref="DD9"/>
+    <sheetView tabSelected="1" topLeftCell="BL13" workbookViewId="0">
+      <selection activeCell="DU48" sqref="DU48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.62857142857143" defaultRowHeight="15"/>
@@ -1052,10 +1054,11 @@
     <col min="73" max="73" width="2.87619047619048" customWidth="1"/>
     <col min="76" max="76" width="2.87619047619048" customWidth="1"/>
     <col min="85" max="85" width="2.87619047619048" customWidth="1"/>
-    <col min="100" max="100" width="3.57142857142857"/>
+    <col min="100" max="100" width="3.62857142857143"/>
+    <col min="113" max="113" width="3.57142857142857"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100">
+    <row r="1" spans="1:140">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1356,8 +1359,128 @@
       <c r="CV1">
         <v>8</v>
       </c>
+      <c r="CW1">
+        <v>8</v>
+      </c>
+      <c r="CX1">
+        <v>8</v>
+      </c>
+      <c r="CY1">
+        <v>8</v>
+      </c>
+      <c r="CZ1">
+        <v>8</v>
+      </c>
+      <c r="DA1">
+        <v>8</v>
+      </c>
+      <c r="DB1">
+        <v>8</v>
+      </c>
+      <c r="DC1">
+        <v>8</v>
+      </c>
+      <c r="DD1">
+        <v>8</v>
+      </c>
+      <c r="DE1">
+        <v>8</v>
+      </c>
+      <c r="DF1">
+        <v>8</v>
+      </c>
+      <c r="DG1">
+        <v>8</v>
+      </c>
+      <c r="DH1">
+        <v>8</v>
+      </c>
+      <c r="DI1">
+        <v>8</v>
+      </c>
+      <c r="DJ1">
+        <v>8</v>
+      </c>
+      <c r="DK1">
+        <v>8</v>
+      </c>
+      <c r="DL1">
+        <v>8</v>
+      </c>
+      <c r="DM1">
+        <v>8</v>
+      </c>
+      <c r="DN1">
+        <v>8</v>
+      </c>
+      <c r="DO1">
+        <v>8</v>
+      </c>
+      <c r="DP1">
+        <v>8</v>
+      </c>
+      <c r="DQ1">
+        <v>8</v>
+      </c>
+      <c r="DR1">
+        <v>8</v>
+      </c>
+      <c r="DS1">
+        <v>8</v>
+      </c>
+      <c r="DT1">
+        <v>8</v>
+      </c>
+      <c r="DU1">
+        <v>8</v>
+      </c>
+      <c r="DV1">
+        <v>8</v>
+      </c>
+      <c r="DW1">
+        <v>8</v>
+      </c>
+      <c r="DX1">
+        <v>8</v>
+      </c>
+      <c r="DY1">
+        <v>8</v>
+      </c>
+      <c r="DZ1">
+        <v>8</v>
+      </c>
+      <c r="EA1">
+        <v>8</v>
+      </c>
+      <c r="EB1">
+        <v>8</v>
+      </c>
+      <c r="EC1">
+        <v>8</v>
+      </c>
+      <c r="ED1">
+        <v>8</v>
+      </c>
+      <c r="EE1">
+        <v>8</v>
+      </c>
+      <c r="EF1">
+        <v>8</v>
+      </c>
+      <c r="EG1">
+        <v>8</v>
+      </c>
+      <c r="EH1">
+        <v>8</v>
+      </c>
+      <c r="EI1">
+        <v>8</v>
+      </c>
+      <c r="EJ1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:100">
+    <row r="2" spans="1:140">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1658,8 +1781,128 @@
       <c r="CV2">
         <v>8</v>
       </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2">
+        <v>0</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
+      <c r="DH2">
+        <v>0</v>
+      </c>
+      <c r="DI2">
+        <v>0</v>
+      </c>
+      <c r="DJ2">
+        <v>0</v>
+      </c>
+      <c r="DK2">
+        <v>0</v>
+      </c>
+      <c r="DL2">
+        <v>0</v>
+      </c>
+      <c r="DM2">
+        <v>0</v>
+      </c>
+      <c r="DN2">
+        <v>0</v>
+      </c>
+      <c r="DO2">
+        <v>0</v>
+      </c>
+      <c r="DP2">
+        <v>0</v>
+      </c>
+      <c r="DQ2">
+        <v>0</v>
+      </c>
+      <c r="DR2">
+        <v>0</v>
+      </c>
+      <c r="DS2">
+        <v>0</v>
+      </c>
+      <c r="DT2">
+        <v>0</v>
+      </c>
+      <c r="DU2">
+        <v>0</v>
+      </c>
+      <c r="DV2">
+        <v>0</v>
+      </c>
+      <c r="DW2">
+        <v>0</v>
+      </c>
+      <c r="DX2">
+        <v>0</v>
+      </c>
+      <c r="DY2">
+        <v>0</v>
+      </c>
+      <c r="DZ2">
+        <v>0</v>
+      </c>
+      <c r="EA2">
+        <v>0</v>
+      </c>
+      <c r="EB2">
+        <v>0</v>
+      </c>
+      <c r="EC2">
+        <v>0</v>
+      </c>
+      <c r="ED2">
+        <v>0</v>
+      </c>
+      <c r="EE2">
+        <v>0</v>
+      </c>
+      <c r="EF2">
+        <v>0</v>
+      </c>
+      <c r="EG2">
+        <v>0</v>
+      </c>
+      <c r="EH2">
+        <v>0</v>
+      </c>
+      <c r="EI2">
+        <v>0</v>
+      </c>
+      <c r="EJ2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:100">
+    <row r="3" spans="1:140">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1736,16 +1979,16 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -1960,8 +2203,128 @@
       <c r="CV3">
         <v>8</v>
       </c>
+      <c r="CW3">
+        <v>0</v>
+      </c>
+      <c r="CX3">
+        <v>0</v>
+      </c>
+      <c r="CY3">
+        <v>0</v>
+      </c>
+      <c r="CZ3">
+        <v>0</v>
+      </c>
+      <c r="DA3">
+        <v>0</v>
+      </c>
+      <c r="DB3">
+        <v>0</v>
+      </c>
+      <c r="DC3">
+        <v>0</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3">
+        <v>0</v>
+      </c>
+      <c r="DF3">
+        <v>0</v>
+      </c>
+      <c r="DG3">
+        <v>0</v>
+      </c>
+      <c r="DH3">
+        <v>0</v>
+      </c>
+      <c r="DI3">
+        <v>0</v>
+      </c>
+      <c r="DJ3">
+        <v>0</v>
+      </c>
+      <c r="DK3">
+        <v>0</v>
+      </c>
+      <c r="DL3">
+        <v>0</v>
+      </c>
+      <c r="DM3">
+        <v>0</v>
+      </c>
+      <c r="DN3">
+        <v>0</v>
+      </c>
+      <c r="DO3">
+        <v>0</v>
+      </c>
+      <c r="DP3">
+        <v>0</v>
+      </c>
+      <c r="DQ3">
+        <v>0</v>
+      </c>
+      <c r="DR3">
+        <v>0</v>
+      </c>
+      <c r="DS3">
+        <v>0</v>
+      </c>
+      <c r="DT3">
+        <v>0</v>
+      </c>
+      <c r="DU3">
+        <v>0</v>
+      </c>
+      <c r="DV3">
+        <v>0</v>
+      </c>
+      <c r="DW3">
+        <v>0</v>
+      </c>
+      <c r="DX3">
+        <v>0</v>
+      </c>
+      <c r="DY3">
+        <v>0</v>
+      </c>
+      <c r="DZ3">
+        <v>0</v>
+      </c>
+      <c r="EA3">
+        <v>0</v>
+      </c>
+      <c r="EB3">
+        <v>0</v>
+      </c>
+      <c r="EC3">
+        <v>0</v>
+      </c>
+      <c r="ED3">
+        <v>0</v>
+      </c>
+      <c r="EE3">
+        <v>0</v>
+      </c>
+      <c r="EF3">
+        <v>0</v>
+      </c>
+      <c r="EG3">
+        <v>0</v>
+      </c>
+      <c r="EH3">
+        <v>0</v>
+      </c>
+      <c r="EI3">
+        <v>0</v>
+      </c>
+      <c r="EJ3">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:100">
+    <row r="4" spans="1:140">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2262,8 +2625,128 @@
       <c r="CV4">
         <v>8</v>
       </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+      <c r="DB4">
+        <v>0</v>
+      </c>
+      <c r="DC4">
+        <v>0</v>
+      </c>
+      <c r="DD4">
+        <v>0</v>
+      </c>
+      <c r="DE4">
+        <v>0</v>
+      </c>
+      <c r="DF4">
+        <v>0</v>
+      </c>
+      <c r="DG4">
+        <v>0</v>
+      </c>
+      <c r="DH4">
+        <v>0</v>
+      </c>
+      <c r="DI4">
+        <v>0</v>
+      </c>
+      <c r="DJ4">
+        <v>0</v>
+      </c>
+      <c r="DK4">
+        <v>0</v>
+      </c>
+      <c r="DL4">
+        <v>0</v>
+      </c>
+      <c r="DM4">
+        <v>0</v>
+      </c>
+      <c r="DN4">
+        <v>0</v>
+      </c>
+      <c r="DO4">
+        <v>0</v>
+      </c>
+      <c r="DP4">
+        <v>0</v>
+      </c>
+      <c r="DQ4">
+        <v>0</v>
+      </c>
+      <c r="DR4">
+        <v>0</v>
+      </c>
+      <c r="DS4">
+        <v>0</v>
+      </c>
+      <c r="DT4">
+        <v>0</v>
+      </c>
+      <c r="DU4">
+        <v>0</v>
+      </c>
+      <c r="DV4">
+        <v>0</v>
+      </c>
+      <c r="DW4">
+        <v>0</v>
+      </c>
+      <c r="DX4">
+        <v>0</v>
+      </c>
+      <c r="DY4">
+        <v>0</v>
+      </c>
+      <c r="DZ4">
+        <v>0</v>
+      </c>
+      <c r="EA4">
+        <v>0</v>
+      </c>
+      <c r="EB4">
+        <v>0</v>
+      </c>
+      <c r="EC4">
+        <v>0</v>
+      </c>
+      <c r="ED4">
+        <v>0</v>
+      </c>
+      <c r="EE4">
+        <v>0</v>
+      </c>
+      <c r="EF4">
+        <v>0</v>
+      </c>
+      <c r="EG4">
+        <v>0</v>
+      </c>
+      <c r="EH4">
+        <v>0</v>
+      </c>
+      <c r="EI4">
+        <v>0</v>
+      </c>
+      <c r="EJ4">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:100">
+    <row r="5" spans="1:140">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2564,8 +3047,128 @@
       <c r="CV5">
         <v>8</v>
       </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+      <c r="DB5">
+        <v>0</v>
+      </c>
+      <c r="DC5">
+        <v>0</v>
+      </c>
+      <c r="DD5">
+        <v>0</v>
+      </c>
+      <c r="DE5">
+        <v>0</v>
+      </c>
+      <c r="DF5">
+        <v>0</v>
+      </c>
+      <c r="DG5">
+        <v>0</v>
+      </c>
+      <c r="DH5">
+        <v>0</v>
+      </c>
+      <c r="DI5">
+        <v>0</v>
+      </c>
+      <c r="DJ5">
+        <v>0</v>
+      </c>
+      <c r="DK5">
+        <v>0</v>
+      </c>
+      <c r="DL5">
+        <v>0</v>
+      </c>
+      <c r="DM5">
+        <v>0</v>
+      </c>
+      <c r="DN5">
+        <v>0</v>
+      </c>
+      <c r="DO5">
+        <v>0</v>
+      </c>
+      <c r="DP5">
+        <v>0</v>
+      </c>
+      <c r="DQ5">
+        <v>0</v>
+      </c>
+      <c r="DR5">
+        <v>0</v>
+      </c>
+      <c r="DS5">
+        <v>0</v>
+      </c>
+      <c r="DT5">
+        <v>0</v>
+      </c>
+      <c r="DU5">
+        <v>0</v>
+      </c>
+      <c r="DV5">
+        <v>0</v>
+      </c>
+      <c r="DW5">
+        <v>0</v>
+      </c>
+      <c r="DX5">
+        <v>0</v>
+      </c>
+      <c r="DY5">
+        <v>0</v>
+      </c>
+      <c r="DZ5">
+        <v>0</v>
+      </c>
+      <c r="EA5">
+        <v>0</v>
+      </c>
+      <c r="EB5">
+        <v>0</v>
+      </c>
+      <c r="EC5">
+        <v>0</v>
+      </c>
+      <c r="ED5">
+        <v>0</v>
+      </c>
+      <c r="EE5">
+        <v>0</v>
+      </c>
+      <c r="EF5">
+        <v>0</v>
+      </c>
+      <c r="EG5">
+        <v>0</v>
+      </c>
+      <c r="EH5">
+        <v>0</v>
+      </c>
+      <c r="EI5">
+        <v>0</v>
+      </c>
+      <c r="EJ5">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:100">
+    <row r="6" spans="1:140">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2866,8 +3469,128 @@
       <c r="CV6">
         <v>8</v>
       </c>
+      <c r="CW6">
+        <v>0</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
+      <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DA6">
+        <v>0</v>
+      </c>
+      <c r="DB6">
+        <v>0</v>
+      </c>
+      <c r="DC6">
+        <v>0</v>
+      </c>
+      <c r="DD6">
+        <v>0</v>
+      </c>
+      <c r="DE6">
+        <v>0</v>
+      </c>
+      <c r="DF6">
+        <v>0</v>
+      </c>
+      <c r="DG6">
+        <v>0</v>
+      </c>
+      <c r="DH6">
+        <v>0</v>
+      </c>
+      <c r="DI6">
+        <v>0</v>
+      </c>
+      <c r="DJ6">
+        <v>0</v>
+      </c>
+      <c r="DK6">
+        <v>0</v>
+      </c>
+      <c r="DL6">
+        <v>0</v>
+      </c>
+      <c r="DM6">
+        <v>0</v>
+      </c>
+      <c r="DN6">
+        <v>0</v>
+      </c>
+      <c r="DO6">
+        <v>0</v>
+      </c>
+      <c r="DP6">
+        <v>0</v>
+      </c>
+      <c r="DQ6">
+        <v>0</v>
+      </c>
+      <c r="DR6">
+        <v>0</v>
+      </c>
+      <c r="DS6">
+        <v>0</v>
+      </c>
+      <c r="DT6">
+        <v>0</v>
+      </c>
+      <c r="DU6">
+        <v>0</v>
+      </c>
+      <c r="DV6">
+        <v>0</v>
+      </c>
+      <c r="DW6">
+        <v>0</v>
+      </c>
+      <c r="DX6">
+        <v>0</v>
+      </c>
+      <c r="DY6">
+        <v>0</v>
+      </c>
+      <c r="DZ6">
+        <v>0</v>
+      </c>
+      <c r="EA6">
+        <v>0</v>
+      </c>
+      <c r="EB6">
+        <v>0</v>
+      </c>
+      <c r="EC6">
+        <v>0</v>
+      </c>
+      <c r="ED6">
+        <v>0</v>
+      </c>
+      <c r="EE6">
+        <v>0</v>
+      </c>
+      <c r="EF6">
+        <v>0</v>
+      </c>
+      <c r="EG6">
+        <v>0</v>
+      </c>
+      <c r="EH6">
+        <v>0</v>
+      </c>
+      <c r="EI6">
+        <v>0</v>
+      </c>
+      <c r="EJ6">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:100">
+    <row r="7" spans="1:140">
       <c r="A7">
         <v>0</v>
       </c>
@@ -3168,8 +3891,128 @@
       <c r="CV7">
         <v>8</v>
       </c>
+      <c r="CW7">
+        <v>0</v>
+      </c>
+      <c r="CX7">
+        <v>0</v>
+      </c>
+      <c r="CY7">
+        <v>0</v>
+      </c>
+      <c r="CZ7">
+        <v>0</v>
+      </c>
+      <c r="DA7">
+        <v>0</v>
+      </c>
+      <c r="DB7">
+        <v>0</v>
+      </c>
+      <c r="DC7">
+        <v>0</v>
+      </c>
+      <c r="DD7">
+        <v>0</v>
+      </c>
+      <c r="DE7">
+        <v>0</v>
+      </c>
+      <c r="DF7">
+        <v>0</v>
+      </c>
+      <c r="DG7">
+        <v>0</v>
+      </c>
+      <c r="DH7">
+        <v>0</v>
+      </c>
+      <c r="DI7">
+        <v>0</v>
+      </c>
+      <c r="DJ7">
+        <v>0</v>
+      </c>
+      <c r="DK7">
+        <v>0</v>
+      </c>
+      <c r="DL7">
+        <v>0</v>
+      </c>
+      <c r="DM7">
+        <v>0</v>
+      </c>
+      <c r="DN7">
+        <v>0</v>
+      </c>
+      <c r="DO7">
+        <v>0</v>
+      </c>
+      <c r="DP7">
+        <v>0</v>
+      </c>
+      <c r="DQ7">
+        <v>0</v>
+      </c>
+      <c r="DR7">
+        <v>0</v>
+      </c>
+      <c r="DS7">
+        <v>0</v>
+      </c>
+      <c r="DT7">
+        <v>0</v>
+      </c>
+      <c r="DU7">
+        <v>0</v>
+      </c>
+      <c r="DV7">
+        <v>0</v>
+      </c>
+      <c r="DW7">
+        <v>0</v>
+      </c>
+      <c r="DX7">
+        <v>0</v>
+      </c>
+      <c r="DY7">
+        <v>0</v>
+      </c>
+      <c r="DZ7">
+        <v>0</v>
+      </c>
+      <c r="EA7">
+        <v>0</v>
+      </c>
+      <c r="EB7">
+        <v>0</v>
+      </c>
+      <c r="EC7">
+        <v>0</v>
+      </c>
+      <c r="ED7">
+        <v>0</v>
+      </c>
+      <c r="EE7">
+        <v>0</v>
+      </c>
+      <c r="EF7">
+        <v>0</v>
+      </c>
+      <c r="EG7">
+        <v>0</v>
+      </c>
+      <c r="EH7">
+        <v>0</v>
+      </c>
+      <c r="EI7">
+        <v>0</v>
+      </c>
+      <c r="EJ7">
+        <v>8</v>
+      </c>
     </row>
-    <row r="8" spans="1:100">
+    <row r="8" spans="1:140">
       <c r="A8">
         <v>0</v>
       </c>
@@ -3470,8 +4313,128 @@
       <c r="CV8">
         <v>8</v>
       </c>
+      <c r="CW8">
+        <v>0</v>
+      </c>
+      <c r="CX8">
+        <v>0</v>
+      </c>
+      <c r="CY8">
+        <v>0</v>
+      </c>
+      <c r="CZ8">
+        <v>0</v>
+      </c>
+      <c r="DA8">
+        <v>0</v>
+      </c>
+      <c r="DB8">
+        <v>0</v>
+      </c>
+      <c r="DC8">
+        <v>0</v>
+      </c>
+      <c r="DD8">
+        <v>0</v>
+      </c>
+      <c r="DE8">
+        <v>0</v>
+      </c>
+      <c r="DF8">
+        <v>0</v>
+      </c>
+      <c r="DG8">
+        <v>0</v>
+      </c>
+      <c r="DH8">
+        <v>0</v>
+      </c>
+      <c r="DI8">
+        <v>0</v>
+      </c>
+      <c r="DJ8">
+        <v>0</v>
+      </c>
+      <c r="DK8">
+        <v>0</v>
+      </c>
+      <c r="DL8">
+        <v>0</v>
+      </c>
+      <c r="DM8">
+        <v>0</v>
+      </c>
+      <c r="DN8">
+        <v>0</v>
+      </c>
+      <c r="DO8">
+        <v>0</v>
+      </c>
+      <c r="DP8">
+        <v>0</v>
+      </c>
+      <c r="DQ8">
+        <v>0</v>
+      </c>
+      <c r="DR8">
+        <v>0</v>
+      </c>
+      <c r="DS8">
+        <v>0</v>
+      </c>
+      <c r="DT8">
+        <v>0</v>
+      </c>
+      <c r="DU8">
+        <v>0</v>
+      </c>
+      <c r="DV8">
+        <v>0</v>
+      </c>
+      <c r="DW8">
+        <v>0</v>
+      </c>
+      <c r="DX8">
+        <v>0</v>
+      </c>
+      <c r="DY8">
+        <v>0</v>
+      </c>
+      <c r="DZ8">
+        <v>0</v>
+      </c>
+      <c r="EA8">
+        <v>0</v>
+      </c>
+      <c r="EB8">
+        <v>0</v>
+      </c>
+      <c r="EC8">
+        <v>0</v>
+      </c>
+      <c r="ED8">
+        <v>0</v>
+      </c>
+      <c r="EE8">
+        <v>0</v>
+      </c>
+      <c r="EF8">
+        <v>0</v>
+      </c>
+      <c r="EG8">
+        <v>0</v>
+      </c>
+      <c r="EH8">
+        <v>0</v>
+      </c>
+      <c r="EI8">
+        <v>0</v>
+      </c>
+      <c r="EJ8">
+        <v>8</v>
+      </c>
     </row>
-    <row r="9" spans="1:100">
+    <row r="9" spans="1:140">
       <c r="A9">
         <v>0</v>
       </c>
@@ -3719,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="CE9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CF9">
         <v>0</v>
@@ -3728,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="CH9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CI9">
         <v>0</v>
@@ -3737,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="CK9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CL9">
         <v>0</v>
@@ -3772,8 +4735,128 @@
       <c r="CV9">
         <v>8</v>
       </c>
+      <c r="CW9">
+        <v>0</v>
+      </c>
+      <c r="CX9">
+        <v>0</v>
+      </c>
+      <c r="CY9">
+        <v>0</v>
+      </c>
+      <c r="CZ9">
+        <v>0</v>
+      </c>
+      <c r="DA9">
+        <v>0</v>
+      </c>
+      <c r="DB9">
+        <v>0</v>
+      </c>
+      <c r="DC9">
+        <v>0</v>
+      </c>
+      <c r="DD9">
+        <v>0</v>
+      </c>
+      <c r="DE9">
+        <v>0</v>
+      </c>
+      <c r="DF9">
+        <v>0</v>
+      </c>
+      <c r="DG9">
+        <v>0</v>
+      </c>
+      <c r="DH9">
+        <v>0</v>
+      </c>
+      <c r="DI9">
+        <v>0</v>
+      </c>
+      <c r="DJ9">
+        <v>0</v>
+      </c>
+      <c r="DK9">
+        <v>0</v>
+      </c>
+      <c r="DL9">
+        <v>0</v>
+      </c>
+      <c r="DM9">
+        <v>0</v>
+      </c>
+      <c r="DN9">
+        <v>0</v>
+      </c>
+      <c r="DO9">
+        <v>0</v>
+      </c>
+      <c r="DP9">
+        <v>0</v>
+      </c>
+      <c r="DQ9">
+        <v>0</v>
+      </c>
+      <c r="DR9">
+        <v>0</v>
+      </c>
+      <c r="DS9">
+        <v>0</v>
+      </c>
+      <c r="DT9">
+        <v>0</v>
+      </c>
+      <c r="DU9">
+        <v>0</v>
+      </c>
+      <c r="DV9">
+        <v>0</v>
+      </c>
+      <c r="DW9">
+        <v>0</v>
+      </c>
+      <c r="DX9">
+        <v>0</v>
+      </c>
+      <c r="DY9">
+        <v>0</v>
+      </c>
+      <c r="DZ9">
+        <v>0</v>
+      </c>
+      <c r="EA9">
+        <v>0</v>
+      </c>
+      <c r="EB9">
+        <v>0</v>
+      </c>
+      <c r="EC9">
+        <v>0</v>
+      </c>
+      <c r="ED9">
+        <v>0</v>
+      </c>
+      <c r="EE9">
+        <v>0</v>
+      </c>
+      <c r="EF9">
+        <v>0</v>
+      </c>
+      <c r="EG9">
+        <v>0</v>
+      </c>
+      <c r="EH9">
+        <v>0</v>
+      </c>
+      <c r="EI9">
+        <v>0</v>
+      </c>
+      <c r="EJ9">
+        <v>8</v>
+      </c>
     </row>
-    <row r="10" spans="1:100">
+    <row r="10" spans="1:140">
       <c r="A10">
         <v>0</v>
       </c>
@@ -4074,8 +5157,128 @@
       <c r="CV10">
         <v>8</v>
       </c>
+      <c r="CW10">
+        <v>0</v>
+      </c>
+      <c r="CX10">
+        <v>0</v>
+      </c>
+      <c r="CY10">
+        <v>0</v>
+      </c>
+      <c r="CZ10">
+        <v>0</v>
+      </c>
+      <c r="DA10">
+        <v>0</v>
+      </c>
+      <c r="DB10">
+        <v>0</v>
+      </c>
+      <c r="DC10">
+        <v>0</v>
+      </c>
+      <c r="DD10">
+        <v>0</v>
+      </c>
+      <c r="DE10">
+        <v>0</v>
+      </c>
+      <c r="DF10">
+        <v>0</v>
+      </c>
+      <c r="DG10">
+        <v>0</v>
+      </c>
+      <c r="DH10">
+        <v>0</v>
+      </c>
+      <c r="DI10">
+        <v>0</v>
+      </c>
+      <c r="DJ10">
+        <v>0</v>
+      </c>
+      <c r="DK10">
+        <v>0</v>
+      </c>
+      <c r="DL10">
+        <v>0</v>
+      </c>
+      <c r="DM10">
+        <v>0</v>
+      </c>
+      <c r="DN10">
+        <v>0</v>
+      </c>
+      <c r="DO10">
+        <v>0</v>
+      </c>
+      <c r="DP10">
+        <v>0</v>
+      </c>
+      <c r="DQ10">
+        <v>0</v>
+      </c>
+      <c r="DR10">
+        <v>0</v>
+      </c>
+      <c r="DS10">
+        <v>0</v>
+      </c>
+      <c r="DT10">
+        <v>0</v>
+      </c>
+      <c r="DU10">
+        <v>0</v>
+      </c>
+      <c r="DV10">
+        <v>0</v>
+      </c>
+      <c r="DW10">
+        <v>0</v>
+      </c>
+      <c r="DX10">
+        <v>0</v>
+      </c>
+      <c r="DY10">
+        <v>0</v>
+      </c>
+      <c r="DZ10">
+        <v>0</v>
+      </c>
+      <c r="EA10">
+        <v>0</v>
+      </c>
+      <c r="EB10">
+        <v>0</v>
+      </c>
+      <c r="EC10">
+        <v>0</v>
+      </c>
+      <c r="ED10">
+        <v>0</v>
+      </c>
+      <c r="EE10">
+        <v>0</v>
+      </c>
+      <c r="EF10">
+        <v>0</v>
+      </c>
+      <c r="EG10">
+        <v>0</v>
+      </c>
+      <c r="EH10">
+        <v>0</v>
+      </c>
+      <c r="EI10">
+        <v>0</v>
+      </c>
+      <c r="EJ10">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="1:100">
+    <row r="11" spans="1:140">
       <c r="A11">
         <v>0</v>
       </c>
@@ -4374,10 +5577,130 @@
         <v>0</v>
       </c>
       <c r="CV11" s="1">
+        <v>22</v>
+      </c>
+      <c r="CW11">
+        <v>0</v>
+      </c>
+      <c r="CX11">
+        <v>0</v>
+      </c>
+      <c r="CY11">
+        <v>0</v>
+      </c>
+      <c r="CZ11">
+        <v>0</v>
+      </c>
+      <c r="DA11">
+        <v>0</v>
+      </c>
+      <c r="DB11">
+        <v>0</v>
+      </c>
+      <c r="DC11">
+        <v>0</v>
+      </c>
+      <c r="DD11">
+        <v>0</v>
+      </c>
+      <c r="DE11">
+        <v>0</v>
+      </c>
+      <c r="DF11">
+        <v>0</v>
+      </c>
+      <c r="DG11">
+        <v>0</v>
+      </c>
+      <c r="DH11">
+        <v>0</v>
+      </c>
+      <c r="DI11">
+        <v>0</v>
+      </c>
+      <c r="DJ11">
+        <v>0</v>
+      </c>
+      <c r="DK11">
+        <v>0</v>
+      </c>
+      <c r="DL11">
+        <v>0</v>
+      </c>
+      <c r="DM11">
+        <v>0</v>
+      </c>
+      <c r="DN11">
+        <v>0</v>
+      </c>
+      <c r="DO11">
+        <v>0</v>
+      </c>
+      <c r="DP11">
+        <v>0</v>
+      </c>
+      <c r="DQ11">
+        <v>0</v>
+      </c>
+      <c r="DR11">
+        <v>0</v>
+      </c>
+      <c r="DS11">
+        <v>0</v>
+      </c>
+      <c r="DT11">
+        <v>0</v>
+      </c>
+      <c r="DU11">
+        <v>0</v>
+      </c>
+      <c r="DV11">
+        <v>0</v>
+      </c>
+      <c r="DW11">
+        <v>0</v>
+      </c>
+      <c r="DX11">
+        <v>0</v>
+      </c>
+      <c r="DY11">
+        <v>0</v>
+      </c>
+      <c r="DZ11">
+        <v>0</v>
+      </c>
+      <c r="EA11">
+        <v>0</v>
+      </c>
+      <c r="EB11">
+        <v>0</v>
+      </c>
+      <c r="EC11">
+        <v>0</v>
+      </c>
+      <c r="ED11">
+        <v>0</v>
+      </c>
+      <c r="EE11">
+        <v>0</v>
+      </c>
+      <c r="EF11">
+        <v>0</v>
+      </c>
+      <c r="EG11">
+        <v>0</v>
+      </c>
+      <c r="EH11">
+        <v>0</v>
+      </c>
+      <c r="EI11">
+        <v>0</v>
+      </c>
+      <c r="EJ11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:100">
+    <row r="12" spans="1:140">
       <c r="A12">
         <v>0</v>
       </c>
@@ -4675,11 +5998,131 @@
       <c r="CU12">
         <v>0</v>
       </c>
-      <c r="CV12">
+      <c r="CV12" s="2">
+        <v>0</v>
+      </c>
+      <c r="CW12">
+        <v>0</v>
+      </c>
+      <c r="CX12">
+        <v>0</v>
+      </c>
+      <c r="CY12">
+        <v>0</v>
+      </c>
+      <c r="CZ12">
+        <v>0</v>
+      </c>
+      <c r="DA12">
+        <v>0</v>
+      </c>
+      <c r="DB12">
+        <v>0</v>
+      </c>
+      <c r="DC12">
+        <v>0</v>
+      </c>
+      <c r="DD12">
+        <v>0</v>
+      </c>
+      <c r="DE12">
+        <v>0</v>
+      </c>
+      <c r="DF12">
+        <v>0</v>
+      </c>
+      <c r="DG12">
+        <v>0</v>
+      </c>
+      <c r="DH12">
+        <v>0</v>
+      </c>
+      <c r="DI12">
+        <v>0</v>
+      </c>
+      <c r="DJ12">
+        <v>0</v>
+      </c>
+      <c r="DK12">
+        <v>0</v>
+      </c>
+      <c r="DL12">
+        <v>0</v>
+      </c>
+      <c r="DM12">
+        <v>0</v>
+      </c>
+      <c r="DN12">
+        <v>0</v>
+      </c>
+      <c r="DO12">
+        <v>0</v>
+      </c>
+      <c r="DP12">
+        <v>0</v>
+      </c>
+      <c r="DQ12">
+        <v>0</v>
+      </c>
+      <c r="DR12">
+        <v>0</v>
+      </c>
+      <c r="DS12">
+        <v>0</v>
+      </c>
+      <c r="DT12">
+        <v>0</v>
+      </c>
+      <c r="DU12">
+        <v>0</v>
+      </c>
+      <c r="DV12">
+        <v>0</v>
+      </c>
+      <c r="DW12">
+        <v>0</v>
+      </c>
+      <c r="DX12">
+        <v>0</v>
+      </c>
+      <c r="DY12">
+        <v>0</v>
+      </c>
+      <c r="DZ12">
+        <v>0</v>
+      </c>
+      <c r="EA12">
+        <v>0</v>
+      </c>
+      <c r="EB12">
+        <v>0</v>
+      </c>
+      <c r="EC12">
+        <v>0</v>
+      </c>
+      <c r="ED12">
+        <v>0</v>
+      </c>
+      <c r="EE12">
+        <v>0</v>
+      </c>
+      <c r="EF12">
+        <v>0</v>
+      </c>
+      <c r="EG12">
+        <v>0</v>
+      </c>
+      <c r="EH12">
+        <v>0</v>
+      </c>
+      <c r="EI12">
+        <v>0</v>
+      </c>
+      <c r="EJ12">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:100">
+    <row r="13" spans="1:140">
       <c r="A13">
         <v>0</v>
       </c>
@@ -4977,11 +6420,131 @@
       <c r="CU13">
         <v>0</v>
       </c>
-      <c r="CV13">
+      <c r="CV13" s="2">
+        <v>0</v>
+      </c>
+      <c r="CW13">
+        <v>0</v>
+      </c>
+      <c r="CX13">
+        <v>0</v>
+      </c>
+      <c r="CY13">
+        <v>0</v>
+      </c>
+      <c r="CZ13">
+        <v>0</v>
+      </c>
+      <c r="DA13">
+        <v>0</v>
+      </c>
+      <c r="DB13">
+        <v>0</v>
+      </c>
+      <c r="DC13">
+        <v>0</v>
+      </c>
+      <c r="DD13">
+        <v>0</v>
+      </c>
+      <c r="DE13">
+        <v>0</v>
+      </c>
+      <c r="DF13">
+        <v>0</v>
+      </c>
+      <c r="DG13">
+        <v>0</v>
+      </c>
+      <c r="DH13">
+        <v>0</v>
+      </c>
+      <c r="DI13">
+        <v>0</v>
+      </c>
+      <c r="DJ13">
+        <v>0</v>
+      </c>
+      <c r="DK13">
+        <v>0</v>
+      </c>
+      <c r="DL13">
+        <v>0</v>
+      </c>
+      <c r="DM13">
+        <v>0</v>
+      </c>
+      <c r="DN13">
+        <v>0</v>
+      </c>
+      <c r="DO13">
+        <v>0</v>
+      </c>
+      <c r="DP13">
+        <v>0</v>
+      </c>
+      <c r="DQ13">
+        <v>0</v>
+      </c>
+      <c r="DR13">
+        <v>0</v>
+      </c>
+      <c r="DS13">
+        <v>0</v>
+      </c>
+      <c r="DT13">
+        <v>0</v>
+      </c>
+      <c r="DU13">
+        <v>0</v>
+      </c>
+      <c r="DV13">
+        <v>0</v>
+      </c>
+      <c r="DW13">
+        <v>0</v>
+      </c>
+      <c r="DX13">
+        <v>0</v>
+      </c>
+      <c r="DY13">
+        <v>0</v>
+      </c>
+      <c r="DZ13">
+        <v>0</v>
+      </c>
+      <c r="EA13">
+        <v>0</v>
+      </c>
+      <c r="EB13">
+        <v>0</v>
+      </c>
+      <c r="EC13">
+        <v>0</v>
+      </c>
+      <c r="ED13">
+        <v>0</v>
+      </c>
+      <c r="EE13">
+        <v>0</v>
+      </c>
+      <c r="EF13">
+        <v>0</v>
+      </c>
+      <c r="EG13">
+        <v>0</v>
+      </c>
+      <c r="EH13">
+        <v>0</v>
+      </c>
+      <c r="EI13">
+        <v>0</v>
+      </c>
+      <c r="EJ13">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:100">
+    <row r="14" spans="1:140">
       <c r="A14">
         <v>9</v>
       </c>
@@ -5061,7 +6624,7 @@
         <v>7</v>
       </c>
       <c r="AA14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB14">
         <v>0</v>
@@ -5280,10 +6843,130 @@
         <v>2</v>
       </c>
       <c r="CV14">
+        <v>2</v>
+      </c>
+      <c r="CW14">
+        <v>0</v>
+      </c>
+      <c r="CX14">
+        <v>0</v>
+      </c>
+      <c r="CY14">
+        <v>0</v>
+      </c>
+      <c r="CZ14">
+        <v>0</v>
+      </c>
+      <c r="DA14">
+        <v>0</v>
+      </c>
+      <c r="DB14">
+        <v>0</v>
+      </c>
+      <c r="DC14">
+        <v>0</v>
+      </c>
+      <c r="DD14">
+        <v>0</v>
+      </c>
+      <c r="DE14">
+        <v>0</v>
+      </c>
+      <c r="DF14">
+        <v>0</v>
+      </c>
+      <c r="DG14">
+        <v>0</v>
+      </c>
+      <c r="DH14">
+        <v>0</v>
+      </c>
+      <c r="DI14">
+        <v>0</v>
+      </c>
+      <c r="DJ14">
+        <v>0</v>
+      </c>
+      <c r="DK14">
+        <v>0</v>
+      </c>
+      <c r="DL14">
+        <v>0</v>
+      </c>
+      <c r="DM14">
+        <v>0</v>
+      </c>
+      <c r="DN14">
+        <v>0</v>
+      </c>
+      <c r="DO14">
+        <v>0</v>
+      </c>
+      <c r="DP14">
+        <v>0</v>
+      </c>
+      <c r="DQ14">
+        <v>0</v>
+      </c>
+      <c r="DR14">
+        <v>0</v>
+      </c>
+      <c r="DS14">
+        <v>0</v>
+      </c>
+      <c r="DT14">
+        <v>0</v>
+      </c>
+      <c r="DU14">
+        <v>0</v>
+      </c>
+      <c r="DV14">
+        <v>0</v>
+      </c>
+      <c r="DW14">
+        <v>0</v>
+      </c>
+      <c r="DX14">
+        <v>0</v>
+      </c>
+      <c r="DY14">
+        <v>0</v>
+      </c>
+      <c r="DZ14">
+        <v>0</v>
+      </c>
+      <c r="EA14">
+        <v>0</v>
+      </c>
+      <c r="EB14">
+        <v>0</v>
+      </c>
+      <c r="EC14">
+        <v>0</v>
+      </c>
+      <c r="ED14">
+        <v>0</v>
+      </c>
+      <c r="EE14">
+        <v>0</v>
+      </c>
+      <c r="EF14">
+        <v>0</v>
+      </c>
+      <c r="EG14">
+        <v>0</v>
+      </c>
+      <c r="EH14">
+        <v>0</v>
+      </c>
+      <c r="EI14">
+        <v>0</v>
+      </c>
+      <c r="EJ14">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:100">
+    <row r="15" spans="1:140">
       <c r="A15">
         <v>9</v>
       </c>
@@ -5584,8 +7267,128 @@
       <c r="CV15">
         <v>8</v>
       </c>
+      <c r="CW15">
+        <v>0</v>
+      </c>
+      <c r="CX15">
+        <v>0</v>
+      </c>
+      <c r="CY15">
+        <v>0</v>
+      </c>
+      <c r="CZ15">
+        <v>0</v>
+      </c>
+      <c r="DA15">
+        <v>0</v>
+      </c>
+      <c r="DB15">
+        <v>0</v>
+      </c>
+      <c r="DC15">
+        <v>0</v>
+      </c>
+      <c r="DD15">
+        <v>0</v>
+      </c>
+      <c r="DE15">
+        <v>0</v>
+      </c>
+      <c r="DF15">
+        <v>0</v>
+      </c>
+      <c r="DG15">
+        <v>0</v>
+      </c>
+      <c r="DH15">
+        <v>0</v>
+      </c>
+      <c r="DI15">
+        <v>0</v>
+      </c>
+      <c r="DJ15">
+        <v>0</v>
+      </c>
+      <c r="DK15">
+        <v>0</v>
+      </c>
+      <c r="DL15">
+        <v>0</v>
+      </c>
+      <c r="DM15">
+        <v>0</v>
+      </c>
+      <c r="DN15">
+        <v>0</v>
+      </c>
+      <c r="DO15">
+        <v>0</v>
+      </c>
+      <c r="DP15">
+        <v>0</v>
+      </c>
+      <c r="DQ15">
+        <v>0</v>
+      </c>
+      <c r="DR15">
+        <v>0</v>
+      </c>
+      <c r="DS15">
+        <v>0</v>
+      </c>
+      <c r="DT15">
+        <v>0</v>
+      </c>
+      <c r="DU15">
+        <v>0</v>
+      </c>
+      <c r="DV15">
+        <v>0</v>
+      </c>
+      <c r="DW15">
+        <v>0</v>
+      </c>
+      <c r="DX15">
+        <v>0</v>
+      </c>
+      <c r="DY15">
+        <v>0</v>
+      </c>
+      <c r="DZ15">
+        <v>0</v>
+      </c>
+      <c r="EA15">
+        <v>0</v>
+      </c>
+      <c r="EB15">
+        <v>0</v>
+      </c>
+      <c r="EC15">
+        <v>0</v>
+      </c>
+      <c r="ED15">
+        <v>0</v>
+      </c>
+      <c r="EE15">
+        <v>0</v>
+      </c>
+      <c r="EF15">
+        <v>0</v>
+      </c>
+      <c r="EG15">
+        <v>0</v>
+      </c>
+      <c r="EH15">
+        <v>0</v>
+      </c>
+      <c r="EI15">
+        <v>0</v>
+      </c>
+      <c r="EJ15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="16" spans="1:100">
+    <row r="16" spans="1:140">
       <c r="A16">
         <v>9</v>
       </c>
@@ -5854,7 +7657,7 @@
         <v>1</v>
       </c>
       <c r="CL16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CM16">
         <v>0</v>
@@ -5886,8 +7689,128 @@
       <c r="CV16">
         <v>8</v>
       </c>
+      <c r="CW16">
+        <v>0</v>
+      </c>
+      <c r="CX16">
+        <v>0</v>
+      </c>
+      <c r="CY16">
+        <v>0</v>
+      </c>
+      <c r="CZ16">
+        <v>0</v>
+      </c>
+      <c r="DA16">
+        <v>0</v>
+      </c>
+      <c r="DB16">
+        <v>0</v>
+      </c>
+      <c r="DC16">
+        <v>0</v>
+      </c>
+      <c r="DD16">
+        <v>0</v>
+      </c>
+      <c r="DE16">
+        <v>0</v>
+      </c>
+      <c r="DF16">
+        <v>0</v>
+      </c>
+      <c r="DG16">
+        <v>0</v>
+      </c>
+      <c r="DH16">
+        <v>0</v>
+      </c>
+      <c r="DI16">
+        <v>0</v>
+      </c>
+      <c r="DJ16">
+        <v>0</v>
+      </c>
+      <c r="DK16">
+        <v>0</v>
+      </c>
+      <c r="DL16">
+        <v>0</v>
+      </c>
+      <c r="DM16">
+        <v>0</v>
+      </c>
+      <c r="DN16">
+        <v>0</v>
+      </c>
+      <c r="DO16">
+        <v>0</v>
+      </c>
+      <c r="DP16">
+        <v>0</v>
+      </c>
+      <c r="DQ16">
+        <v>0</v>
+      </c>
+      <c r="DR16">
+        <v>0</v>
+      </c>
+      <c r="DS16">
+        <v>0</v>
+      </c>
+      <c r="DT16">
+        <v>0</v>
+      </c>
+      <c r="DU16">
+        <v>0</v>
+      </c>
+      <c r="DV16">
+        <v>0</v>
+      </c>
+      <c r="DW16">
+        <v>0</v>
+      </c>
+      <c r="DX16">
+        <v>0</v>
+      </c>
+      <c r="DY16">
+        <v>0</v>
+      </c>
+      <c r="DZ16">
+        <v>0</v>
+      </c>
+      <c r="EA16">
+        <v>0</v>
+      </c>
+      <c r="EB16">
+        <v>0</v>
+      </c>
+      <c r="EC16">
+        <v>0</v>
+      </c>
+      <c r="ED16">
+        <v>0</v>
+      </c>
+      <c r="EE16">
+        <v>0</v>
+      </c>
+      <c r="EF16">
+        <v>0</v>
+      </c>
+      <c r="EG16">
+        <v>0</v>
+      </c>
+      <c r="EH16">
+        <v>0</v>
+      </c>
+      <c r="EI16">
+        <v>0</v>
+      </c>
+      <c r="EJ16">
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="1:100">
+    <row r="17" spans="1:140">
       <c r="A17">
         <v>7</v>
       </c>
@@ -6188,8 +8111,128 @@
       <c r="CV17">
         <v>8</v>
       </c>
+      <c r="CW17">
+        <v>7</v>
+      </c>
+      <c r="CX17">
+        <v>7</v>
+      </c>
+      <c r="CY17">
+        <v>0</v>
+      </c>
+      <c r="CZ17">
+        <v>0</v>
+      </c>
+      <c r="DA17">
+        <v>0</v>
+      </c>
+      <c r="DB17">
+        <v>0</v>
+      </c>
+      <c r="DC17">
+        <v>0</v>
+      </c>
+      <c r="DD17">
+        <v>0</v>
+      </c>
+      <c r="DE17">
+        <v>0</v>
+      </c>
+      <c r="DF17">
+        <v>0</v>
+      </c>
+      <c r="DG17">
+        <v>0</v>
+      </c>
+      <c r="DH17">
+        <v>0</v>
+      </c>
+      <c r="DI17">
+        <v>0</v>
+      </c>
+      <c r="DJ17">
+        <v>0</v>
+      </c>
+      <c r="DK17">
+        <v>0</v>
+      </c>
+      <c r="DL17">
+        <v>0</v>
+      </c>
+      <c r="DM17">
+        <v>0</v>
+      </c>
+      <c r="DN17">
+        <v>0</v>
+      </c>
+      <c r="DO17">
+        <v>0</v>
+      </c>
+      <c r="DP17">
+        <v>0</v>
+      </c>
+      <c r="DQ17">
+        <v>0</v>
+      </c>
+      <c r="DR17">
+        <v>0</v>
+      </c>
+      <c r="DS17">
+        <v>0</v>
+      </c>
+      <c r="DT17">
+        <v>0</v>
+      </c>
+      <c r="DU17">
+        <v>0</v>
+      </c>
+      <c r="DV17">
+        <v>0</v>
+      </c>
+      <c r="DW17">
+        <v>0</v>
+      </c>
+      <c r="DX17">
+        <v>0</v>
+      </c>
+      <c r="DY17">
+        <v>0</v>
+      </c>
+      <c r="DZ17">
+        <v>0</v>
+      </c>
+      <c r="EA17">
+        <v>0</v>
+      </c>
+      <c r="EB17">
+        <v>0</v>
+      </c>
+      <c r="EC17">
+        <v>0</v>
+      </c>
+      <c r="ED17">
+        <v>0</v>
+      </c>
+      <c r="EE17">
+        <v>0</v>
+      </c>
+      <c r="EF17">
+        <v>0</v>
+      </c>
+      <c r="EG17">
+        <v>0</v>
+      </c>
+      <c r="EH17">
+        <v>0</v>
+      </c>
+      <c r="EI17">
+        <v>0</v>
+      </c>
+      <c r="EJ17">
+        <v>8</v>
+      </c>
     </row>
-    <row r="18" spans="1:100">
+    <row r="18" spans="1:140">
       <c r="A18">
         <v>6</v>
       </c>
@@ -6490,8 +8533,128 @@
       <c r="CV18">
         <v>8</v>
       </c>
+      <c r="CW18">
+        <v>6</v>
+      </c>
+      <c r="CX18">
+        <v>6</v>
+      </c>
+      <c r="CY18">
+        <v>6</v>
+      </c>
+      <c r="CZ18">
+        <v>0</v>
+      </c>
+      <c r="DA18">
+        <v>0</v>
+      </c>
+      <c r="DB18">
+        <v>0</v>
+      </c>
+      <c r="DC18">
+        <v>0</v>
+      </c>
+      <c r="DD18">
+        <v>0</v>
+      </c>
+      <c r="DE18">
+        <v>0</v>
+      </c>
+      <c r="DF18">
+        <v>0</v>
+      </c>
+      <c r="DG18">
+        <v>0</v>
+      </c>
+      <c r="DH18">
+        <v>0</v>
+      </c>
+      <c r="DI18">
+        <v>0</v>
+      </c>
+      <c r="DJ18">
+        <v>0</v>
+      </c>
+      <c r="DK18">
+        <v>0</v>
+      </c>
+      <c r="DL18">
+        <v>0</v>
+      </c>
+      <c r="DM18">
+        <v>0</v>
+      </c>
+      <c r="DN18">
+        <v>0</v>
+      </c>
+      <c r="DO18">
+        <v>0</v>
+      </c>
+      <c r="DP18">
+        <v>0</v>
+      </c>
+      <c r="DQ18">
+        <v>0</v>
+      </c>
+      <c r="DR18">
+        <v>0</v>
+      </c>
+      <c r="DS18">
+        <v>0</v>
+      </c>
+      <c r="DT18">
+        <v>0</v>
+      </c>
+      <c r="DU18">
+        <v>0</v>
+      </c>
+      <c r="DV18">
+        <v>0</v>
+      </c>
+      <c r="DW18">
+        <v>0</v>
+      </c>
+      <c r="DX18">
+        <v>0</v>
+      </c>
+      <c r="DY18">
+        <v>0</v>
+      </c>
+      <c r="DZ18">
+        <v>0</v>
+      </c>
+      <c r="EA18">
+        <v>0</v>
+      </c>
+      <c r="EB18">
+        <v>0</v>
+      </c>
+      <c r="EC18">
+        <v>0</v>
+      </c>
+      <c r="ED18">
+        <v>0</v>
+      </c>
+      <c r="EE18">
+        <v>0</v>
+      </c>
+      <c r="EF18">
+        <v>0</v>
+      </c>
+      <c r="EG18">
+        <v>0</v>
+      </c>
+      <c r="EH18">
+        <v>0</v>
+      </c>
+      <c r="EI18">
+        <v>0</v>
+      </c>
+      <c r="EJ18">
+        <v>8</v>
+      </c>
     </row>
-    <row r="19" spans="1:100">
+    <row r="19" spans="1:140">
       <c r="A19">
         <v>6</v>
       </c>
@@ -6792,8 +8955,128 @@
       <c r="CV19">
         <v>8</v>
       </c>
+      <c r="CW19">
+        <v>0</v>
+      </c>
+      <c r="CX19">
+        <v>0</v>
+      </c>
+      <c r="CY19">
+        <v>0</v>
+      </c>
+      <c r="CZ19">
+        <v>0</v>
+      </c>
+      <c r="DA19">
+        <v>0</v>
+      </c>
+      <c r="DB19">
+        <v>0</v>
+      </c>
+      <c r="DC19">
+        <v>0</v>
+      </c>
+      <c r="DD19">
+        <v>0</v>
+      </c>
+      <c r="DE19">
+        <v>0</v>
+      </c>
+      <c r="DF19">
+        <v>0</v>
+      </c>
+      <c r="DG19">
+        <v>0</v>
+      </c>
+      <c r="DH19">
+        <v>0</v>
+      </c>
+      <c r="DI19">
+        <v>0</v>
+      </c>
+      <c r="DJ19">
+        <v>0</v>
+      </c>
+      <c r="DK19">
+        <v>0</v>
+      </c>
+      <c r="DL19">
+        <v>0</v>
+      </c>
+      <c r="DM19">
+        <v>0</v>
+      </c>
+      <c r="DN19">
+        <v>0</v>
+      </c>
+      <c r="DO19">
+        <v>0</v>
+      </c>
+      <c r="DP19">
+        <v>0</v>
+      </c>
+      <c r="DQ19">
+        <v>0</v>
+      </c>
+      <c r="DR19">
+        <v>0</v>
+      </c>
+      <c r="DS19">
+        <v>0</v>
+      </c>
+      <c r="DT19">
+        <v>0</v>
+      </c>
+      <c r="DU19">
+        <v>0</v>
+      </c>
+      <c r="DV19">
+        <v>0</v>
+      </c>
+      <c r="DW19">
+        <v>0</v>
+      </c>
+      <c r="DX19">
+        <v>0</v>
+      </c>
+      <c r="DY19">
+        <v>0</v>
+      </c>
+      <c r="DZ19">
+        <v>0</v>
+      </c>
+      <c r="EA19">
+        <v>0</v>
+      </c>
+      <c r="EB19">
+        <v>0</v>
+      </c>
+      <c r="EC19">
+        <v>0</v>
+      </c>
+      <c r="ED19">
+        <v>0</v>
+      </c>
+      <c r="EE19">
+        <v>0</v>
+      </c>
+      <c r="EF19">
+        <v>0</v>
+      </c>
+      <c r="EG19">
+        <v>0</v>
+      </c>
+      <c r="EH19">
+        <v>0</v>
+      </c>
+      <c r="EI19">
+        <v>0</v>
+      </c>
+      <c r="EJ19">
+        <v>8</v>
+      </c>
     </row>
-    <row r="20" spans="1:100">
+    <row r="20" spans="1:140">
       <c r="A20">
         <v>6</v>
       </c>
@@ -7094,8 +9377,128 @@
       <c r="CV20">
         <v>8</v>
       </c>
+      <c r="CW20">
+        <v>0</v>
+      </c>
+      <c r="CX20">
+        <v>0</v>
+      </c>
+      <c r="CY20">
+        <v>0</v>
+      </c>
+      <c r="CZ20">
+        <v>0</v>
+      </c>
+      <c r="DA20">
+        <v>0</v>
+      </c>
+      <c r="DB20">
+        <v>0</v>
+      </c>
+      <c r="DC20">
+        <v>0</v>
+      </c>
+      <c r="DD20">
+        <v>0</v>
+      </c>
+      <c r="DE20">
+        <v>0</v>
+      </c>
+      <c r="DF20">
+        <v>0</v>
+      </c>
+      <c r="DG20">
+        <v>0</v>
+      </c>
+      <c r="DH20">
+        <v>0</v>
+      </c>
+      <c r="DI20">
+        <v>0</v>
+      </c>
+      <c r="DJ20">
+        <v>0</v>
+      </c>
+      <c r="DK20">
+        <v>0</v>
+      </c>
+      <c r="DL20">
+        <v>0</v>
+      </c>
+      <c r="DM20">
+        <v>0</v>
+      </c>
+      <c r="DN20">
+        <v>0</v>
+      </c>
+      <c r="DO20">
+        <v>0</v>
+      </c>
+      <c r="DP20">
+        <v>0</v>
+      </c>
+      <c r="DQ20">
+        <v>0</v>
+      </c>
+      <c r="DR20">
+        <v>0</v>
+      </c>
+      <c r="DS20">
+        <v>0</v>
+      </c>
+      <c r="DT20">
+        <v>0</v>
+      </c>
+      <c r="DU20">
+        <v>0</v>
+      </c>
+      <c r="DV20">
+        <v>0</v>
+      </c>
+      <c r="DW20">
+        <v>0</v>
+      </c>
+      <c r="DX20">
+        <v>0</v>
+      </c>
+      <c r="DY20">
+        <v>0</v>
+      </c>
+      <c r="DZ20">
+        <v>0</v>
+      </c>
+      <c r="EA20">
+        <v>0</v>
+      </c>
+      <c r="EB20">
+        <v>0</v>
+      </c>
+      <c r="EC20">
+        <v>0</v>
+      </c>
+      <c r="ED20">
+        <v>0</v>
+      </c>
+      <c r="EE20">
+        <v>0</v>
+      </c>
+      <c r="EF20">
+        <v>0</v>
+      </c>
+      <c r="EG20">
+        <v>0</v>
+      </c>
+      <c r="EH20">
+        <v>0</v>
+      </c>
+      <c r="EI20">
+        <v>0</v>
+      </c>
+      <c r="EJ20">
+        <v>8</v>
+      </c>
     </row>
-    <row r="21" spans="1:100">
+    <row r="21" spans="1:140">
       <c r="A21">
         <v>8</v>
       </c>
@@ -7396,8 +9799,128 @@
       <c r="CV21">
         <v>8</v>
       </c>
+      <c r="CW21">
+        <v>9</v>
+      </c>
+      <c r="CX21">
+        <v>0</v>
+      </c>
+      <c r="CY21">
+        <v>0</v>
+      </c>
+      <c r="CZ21">
+        <v>9</v>
+      </c>
+      <c r="DA21">
+        <v>0</v>
+      </c>
+      <c r="DB21">
+        <v>0</v>
+      </c>
+      <c r="DC21">
+        <v>0</v>
+      </c>
+      <c r="DD21">
+        <v>0</v>
+      </c>
+      <c r="DE21">
+        <v>0</v>
+      </c>
+      <c r="DF21">
+        <v>4</v>
+      </c>
+      <c r="DG21">
+        <v>4</v>
+      </c>
+      <c r="DH21">
+        <v>4</v>
+      </c>
+      <c r="DI21">
+        <v>4</v>
+      </c>
+      <c r="DJ21">
+        <v>4</v>
+      </c>
+      <c r="DK21">
+        <v>4</v>
+      </c>
+      <c r="DL21">
+        <v>4</v>
+      </c>
+      <c r="DM21">
+        <v>4</v>
+      </c>
+      <c r="DN21">
+        <v>4</v>
+      </c>
+      <c r="DO21">
+        <v>4</v>
+      </c>
+      <c r="DP21">
+        <v>4</v>
+      </c>
+      <c r="DQ21">
+        <v>0</v>
+      </c>
+      <c r="DR21">
+        <v>0</v>
+      </c>
+      <c r="DS21">
+        <v>0</v>
+      </c>
+      <c r="DT21">
+        <v>0</v>
+      </c>
+      <c r="DU21">
+        <v>0</v>
+      </c>
+      <c r="DV21">
+        <v>0</v>
+      </c>
+      <c r="DW21">
+        <v>0</v>
+      </c>
+      <c r="DX21">
+        <v>0</v>
+      </c>
+      <c r="DY21">
+        <v>0</v>
+      </c>
+      <c r="DZ21">
+        <v>0</v>
+      </c>
+      <c r="EA21">
+        <v>0</v>
+      </c>
+      <c r="EB21">
+        <v>0</v>
+      </c>
+      <c r="EC21">
+        <v>0</v>
+      </c>
+      <c r="ED21">
+        <v>0</v>
+      </c>
+      <c r="EE21">
+        <v>0</v>
+      </c>
+      <c r="EF21">
+        <v>0</v>
+      </c>
+      <c r="EG21">
+        <v>0</v>
+      </c>
+      <c r="EH21">
+        <v>0</v>
+      </c>
+      <c r="EI21">
+        <v>0</v>
+      </c>
+      <c r="EJ21">
+        <v>8</v>
+      </c>
     </row>
-    <row r="22" spans="1:100">
+    <row r="22" spans="1:140">
       <c r="A22">
         <v>8</v>
       </c>
@@ -7698,8 +10221,128 @@
       <c r="CV22">
         <v>8</v>
       </c>
+      <c r="CW22">
+        <v>2</v>
+      </c>
+      <c r="CX22">
+        <v>2</v>
+      </c>
+      <c r="CY22">
+        <v>2</v>
+      </c>
+      <c r="CZ22">
+        <v>2</v>
+      </c>
+      <c r="DA22">
+        <v>2</v>
+      </c>
+      <c r="DB22">
+        <v>2</v>
+      </c>
+      <c r="DC22">
+        <v>2</v>
+      </c>
+      <c r="DD22">
+        <v>2</v>
+      </c>
+      <c r="DE22">
+        <v>2</v>
+      </c>
+      <c r="DF22">
+        <v>2</v>
+      </c>
+      <c r="DG22">
+        <v>2</v>
+      </c>
+      <c r="DH22">
+        <v>2</v>
+      </c>
+      <c r="DI22">
+        <v>2</v>
+      </c>
+      <c r="DJ22">
+        <v>2</v>
+      </c>
+      <c r="DK22">
+        <v>2</v>
+      </c>
+      <c r="DL22">
+        <v>2</v>
+      </c>
+      <c r="DM22">
+        <v>2</v>
+      </c>
+      <c r="DN22">
+        <v>2</v>
+      </c>
+      <c r="DO22">
+        <v>2</v>
+      </c>
+      <c r="DP22">
+        <v>2</v>
+      </c>
+      <c r="DQ22">
+        <v>2</v>
+      </c>
+      <c r="DR22">
+        <v>2</v>
+      </c>
+      <c r="DS22">
+        <v>2</v>
+      </c>
+      <c r="DT22">
+        <v>2</v>
+      </c>
+      <c r="DU22">
+        <v>2</v>
+      </c>
+      <c r="DV22">
+        <v>2</v>
+      </c>
+      <c r="DW22">
+        <v>2</v>
+      </c>
+      <c r="DX22">
+        <v>2</v>
+      </c>
+      <c r="DY22">
+        <v>2</v>
+      </c>
+      <c r="DZ22">
+        <v>2</v>
+      </c>
+      <c r="EA22">
+        <v>2</v>
+      </c>
+      <c r="EB22">
+        <v>2</v>
+      </c>
+      <c r="EC22">
+        <v>0</v>
+      </c>
+      <c r="ED22">
+        <v>0</v>
+      </c>
+      <c r="EE22">
+        <v>0</v>
+      </c>
+      <c r="EF22">
+        <v>0</v>
+      </c>
+      <c r="EG22">
+        <v>0</v>
+      </c>
+      <c r="EH22">
+        <v>0</v>
+      </c>
+      <c r="EI22">
+        <v>0</v>
+      </c>
+      <c r="EJ22">
+        <v>8</v>
+      </c>
     </row>
-    <row r="23" spans="1:100">
+    <row r="23" spans="1:140">
       <c r="A23">
         <v>8</v>
       </c>
@@ -8000,8 +10643,128 @@
       <c r="CV23">
         <v>8</v>
       </c>
+      <c r="CW23">
+        <v>1</v>
+      </c>
+      <c r="CX23">
+        <v>1</v>
+      </c>
+      <c r="CY23">
+        <v>1</v>
+      </c>
+      <c r="CZ23">
+        <v>1</v>
+      </c>
+      <c r="DA23">
+        <v>1</v>
+      </c>
+      <c r="DB23">
+        <v>1</v>
+      </c>
+      <c r="DC23">
+        <v>1</v>
+      </c>
+      <c r="DD23">
+        <v>1</v>
+      </c>
+      <c r="DE23">
+        <v>1</v>
+      </c>
+      <c r="DF23">
+        <v>1</v>
+      </c>
+      <c r="DG23">
+        <v>1</v>
+      </c>
+      <c r="DH23">
+        <v>1</v>
+      </c>
+      <c r="DI23">
+        <v>1</v>
+      </c>
+      <c r="DJ23">
+        <v>1</v>
+      </c>
+      <c r="DK23">
+        <v>1</v>
+      </c>
+      <c r="DL23">
+        <v>1</v>
+      </c>
+      <c r="DM23">
+        <v>1</v>
+      </c>
+      <c r="DN23">
+        <v>1</v>
+      </c>
+      <c r="DO23">
+        <v>1</v>
+      </c>
+      <c r="DP23">
+        <v>1</v>
+      </c>
+      <c r="DQ23">
+        <v>1</v>
+      </c>
+      <c r="DR23">
+        <v>1</v>
+      </c>
+      <c r="DS23">
+        <v>1</v>
+      </c>
+      <c r="DT23">
+        <v>1</v>
+      </c>
+      <c r="DU23">
+        <v>1</v>
+      </c>
+      <c r="DV23">
+        <v>1</v>
+      </c>
+      <c r="DW23">
+        <v>1</v>
+      </c>
+      <c r="DX23">
+        <v>1</v>
+      </c>
+      <c r="DY23">
+        <v>1</v>
+      </c>
+      <c r="DZ23">
+        <v>1</v>
+      </c>
+      <c r="EA23">
+        <v>1</v>
+      </c>
+      <c r="EB23">
+        <v>1</v>
+      </c>
+      <c r="EC23">
+        <v>2</v>
+      </c>
+      <c r="ED23">
+        <v>0</v>
+      </c>
+      <c r="EE23">
+        <v>0</v>
+      </c>
+      <c r="EF23">
+        <v>0</v>
+      </c>
+      <c r="EG23">
+        <v>0</v>
+      </c>
+      <c r="EH23">
+        <v>0</v>
+      </c>
+      <c r="EI23">
+        <v>0</v>
+      </c>
+      <c r="EJ23">
+        <v>8</v>
+      </c>
     </row>
-    <row r="24" spans="1:100">
+    <row r="24" spans="1:140">
       <c r="A24">
         <v>8</v>
       </c>
@@ -8302,8 +11065,128 @@
       <c r="CV24">
         <v>8</v>
       </c>
+      <c r="CW24">
+        <v>0</v>
+      </c>
+      <c r="CX24">
+        <v>0</v>
+      </c>
+      <c r="CY24">
+        <v>0</v>
+      </c>
+      <c r="CZ24">
+        <v>0</v>
+      </c>
+      <c r="DA24">
+        <v>0</v>
+      </c>
+      <c r="DB24">
+        <v>0</v>
+      </c>
+      <c r="DC24">
+        <v>0</v>
+      </c>
+      <c r="DD24">
+        <v>0</v>
+      </c>
+      <c r="DE24">
+        <v>0</v>
+      </c>
+      <c r="DF24">
+        <v>0</v>
+      </c>
+      <c r="DG24">
+        <v>0</v>
+      </c>
+      <c r="DH24">
+        <v>0</v>
+      </c>
+      <c r="DI24">
+        <v>0</v>
+      </c>
+      <c r="DJ24">
+        <v>0</v>
+      </c>
+      <c r="DK24">
+        <v>0</v>
+      </c>
+      <c r="DL24">
+        <v>0</v>
+      </c>
+      <c r="DM24">
+        <v>0</v>
+      </c>
+      <c r="DN24">
+        <v>0</v>
+      </c>
+      <c r="DO24">
+        <v>0</v>
+      </c>
+      <c r="DP24">
+        <v>0</v>
+      </c>
+      <c r="DQ24">
+        <v>0</v>
+      </c>
+      <c r="DR24">
+        <v>0</v>
+      </c>
+      <c r="DS24">
+        <v>0</v>
+      </c>
+      <c r="DT24">
+        <v>0</v>
+      </c>
+      <c r="DU24">
+        <v>0</v>
+      </c>
+      <c r="DV24">
+        <v>0</v>
+      </c>
+      <c r="DW24">
+        <v>0</v>
+      </c>
+      <c r="DX24">
+        <v>0</v>
+      </c>
+      <c r="DY24">
+        <v>0</v>
+      </c>
+      <c r="DZ24">
+        <v>0</v>
+      </c>
+      <c r="EA24">
+        <v>0</v>
+      </c>
+      <c r="EB24">
+        <v>0</v>
+      </c>
+      <c r="EC24">
+        <v>0</v>
+      </c>
+      <c r="ED24">
+        <v>0</v>
+      </c>
+      <c r="EE24">
+        <v>0</v>
+      </c>
+      <c r="EF24">
+        <v>0</v>
+      </c>
+      <c r="EG24">
+        <v>0</v>
+      </c>
+      <c r="EH24">
+        <v>0</v>
+      </c>
+      <c r="EI24">
+        <v>0</v>
+      </c>
+      <c r="EJ24">
+        <v>8</v>
+      </c>
     </row>
-    <row r="25" spans="1:100">
+    <row r="25" spans="1:140">
       <c r="A25">
         <v>8</v>
       </c>
@@ -8604,8 +11487,128 @@
       <c r="CV25">
         <v>8</v>
       </c>
+      <c r="CW25">
+        <v>0</v>
+      </c>
+      <c r="CX25">
+        <v>0</v>
+      </c>
+      <c r="CY25">
+        <v>0</v>
+      </c>
+      <c r="CZ25">
+        <v>0</v>
+      </c>
+      <c r="DA25">
+        <v>0</v>
+      </c>
+      <c r="DB25">
+        <v>0</v>
+      </c>
+      <c r="DC25">
+        <v>0</v>
+      </c>
+      <c r="DD25">
+        <v>0</v>
+      </c>
+      <c r="DE25">
+        <v>0</v>
+      </c>
+      <c r="DF25">
+        <v>0</v>
+      </c>
+      <c r="DG25">
+        <v>0</v>
+      </c>
+      <c r="DH25">
+        <v>0</v>
+      </c>
+      <c r="DI25">
+        <v>0</v>
+      </c>
+      <c r="DJ25">
+        <v>0</v>
+      </c>
+      <c r="DK25">
+        <v>0</v>
+      </c>
+      <c r="DL25">
+        <v>0</v>
+      </c>
+      <c r="DM25">
+        <v>0</v>
+      </c>
+      <c r="DN25">
+        <v>0</v>
+      </c>
+      <c r="DO25">
+        <v>0</v>
+      </c>
+      <c r="DP25">
+        <v>0</v>
+      </c>
+      <c r="DQ25">
+        <v>0</v>
+      </c>
+      <c r="DR25">
+        <v>0</v>
+      </c>
+      <c r="DS25">
+        <v>0</v>
+      </c>
+      <c r="DT25">
+        <v>0</v>
+      </c>
+      <c r="DU25">
+        <v>0</v>
+      </c>
+      <c r="DV25">
+        <v>0</v>
+      </c>
+      <c r="DW25">
+        <v>0</v>
+      </c>
+      <c r="DX25">
+        <v>0</v>
+      </c>
+      <c r="DY25">
+        <v>0</v>
+      </c>
+      <c r="DZ25">
+        <v>0</v>
+      </c>
+      <c r="EA25">
+        <v>0</v>
+      </c>
+      <c r="EB25">
+        <v>0</v>
+      </c>
+      <c r="EC25">
+        <v>0</v>
+      </c>
+      <c r="ED25">
+        <v>0</v>
+      </c>
+      <c r="EE25">
+        <v>0</v>
+      </c>
+      <c r="EF25">
+        <v>0</v>
+      </c>
+      <c r="EG25">
+        <v>0</v>
+      </c>
+      <c r="EH25">
+        <v>0</v>
+      </c>
+      <c r="EI25">
+        <v>0</v>
+      </c>
+      <c r="EJ25">
+        <v>8</v>
+      </c>
     </row>
-    <row r="26" spans="1:100">
+    <row r="26" spans="1:140">
       <c r="A26">
         <v>8</v>
       </c>
@@ -8906,8 +11909,128 @@
       <c r="CV26">
         <v>8</v>
       </c>
+      <c r="CW26">
+        <v>0</v>
+      </c>
+      <c r="CX26">
+        <v>0</v>
+      </c>
+      <c r="CY26">
+        <v>0</v>
+      </c>
+      <c r="CZ26">
+        <v>0</v>
+      </c>
+      <c r="DA26">
+        <v>0</v>
+      </c>
+      <c r="DB26">
+        <v>0</v>
+      </c>
+      <c r="DC26">
+        <v>0</v>
+      </c>
+      <c r="DD26">
+        <v>0</v>
+      </c>
+      <c r="DE26">
+        <v>0</v>
+      </c>
+      <c r="DF26">
+        <v>0</v>
+      </c>
+      <c r="DG26">
+        <v>0</v>
+      </c>
+      <c r="DH26">
+        <v>0</v>
+      </c>
+      <c r="DI26">
+        <v>0</v>
+      </c>
+      <c r="DJ26">
+        <v>0</v>
+      </c>
+      <c r="DK26">
+        <v>0</v>
+      </c>
+      <c r="DL26">
+        <v>0</v>
+      </c>
+      <c r="DM26">
+        <v>0</v>
+      </c>
+      <c r="DN26">
+        <v>0</v>
+      </c>
+      <c r="DO26">
+        <v>0</v>
+      </c>
+      <c r="DP26">
+        <v>0</v>
+      </c>
+      <c r="DQ26">
+        <v>0</v>
+      </c>
+      <c r="DR26">
+        <v>0</v>
+      </c>
+      <c r="DS26">
+        <v>0</v>
+      </c>
+      <c r="DT26">
+        <v>0</v>
+      </c>
+      <c r="DU26">
+        <v>0</v>
+      </c>
+      <c r="DV26">
+        <v>0</v>
+      </c>
+      <c r="DW26">
+        <v>0</v>
+      </c>
+      <c r="DX26">
+        <v>0</v>
+      </c>
+      <c r="DY26">
+        <v>0</v>
+      </c>
+      <c r="DZ26">
+        <v>0</v>
+      </c>
+      <c r="EA26">
+        <v>0</v>
+      </c>
+      <c r="EB26">
+        <v>0</v>
+      </c>
+      <c r="EC26">
+        <v>0</v>
+      </c>
+      <c r="ED26">
+        <v>0</v>
+      </c>
+      <c r="EE26">
+        <v>0</v>
+      </c>
+      <c r="EF26">
+        <v>0</v>
+      </c>
+      <c r="EG26">
+        <v>0</v>
+      </c>
+      <c r="EH26">
+        <v>0</v>
+      </c>
+      <c r="EI26">
+        <v>0</v>
+      </c>
+      <c r="EJ26">
+        <v>8</v>
+      </c>
     </row>
-    <row r="27" spans="1:100">
+    <row r="27" spans="1:140">
       <c r="A27">
         <v>8</v>
       </c>
@@ -9208,8 +12331,128 @@
       <c r="CV27">
         <v>8</v>
       </c>
+      <c r="CW27">
+        <v>0</v>
+      </c>
+      <c r="CX27">
+        <v>0</v>
+      </c>
+      <c r="CY27">
+        <v>0</v>
+      </c>
+      <c r="CZ27">
+        <v>0</v>
+      </c>
+      <c r="DA27">
+        <v>0</v>
+      </c>
+      <c r="DB27">
+        <v>0</v>
+      </c>
+      <c r="DC27">
+        <v>0</v>
+      </c>
+      <c r="DD27">
+        <v>0</v>
+      </c>
+      <c r="DE27">
+        <v>0</v>
+      </c>
+      <c r="DF27">
+        <v>0</v>
+      </c>
+      <c r="DG27">
+        <v>0</v>
+      </c>
+      <c r="DH27">
+        <v>0</v>
+      </c>
+      <c r="DI27">
+        <v>0</v>
+      </c>
+      <c r="DJ27">
+        <v>0</v>
+      </c>
+      <c r="DK27">
+        <v>0</v>
+      </c>
+      <c r="DL27">
+        <v>0</v>
+      </c>
+      <c r="DM27">
+        <v>0</v>
+      </c>
+      <c r="DN27">
+        <v>0</v>
+      </c>
+      <c r="DO27">
+        <v>0</v>
+      </c>
+      <c r="DP27">
+        <v>0</v>
+      </c>
+      <c r="DQ27">
+        <v>0</v>
+      </c>
+      <c r="DR27">
+        <v>0</v>
+      </c>
+      <c r="DS27">
+        <v>0</v>
+      </c>
+      <c r="DT27">
+        <v>0</v>
+      </c>
+      <c r="DU27">
+        <v>0</v>
+      </c>
+      <c r="DV27">
+        <v>0</v>
+      </c>
+      <c r="DW27">
+        <v>0</v>
+      </c>
+      <c r="DX27">
+        <v>0</v>
+      </c>
+      <c r="DY27">
+        <v>0</v>
+      </c>
+      <c r="DZ27">
+        <v>0</v>
+      </c>
+      <c r="EA27">
+        <v>0</v>
+      </c>
+      <c r="EB27">
+        <v>0</v>
+      </c>
+      <c r="EC27">
+        <v>0</v>
+      </c>
+      <c r="ED27">
+        <v>0</v>
+      </c>
+      <c r="EE27">
+        <v>0</v>
+      </c>
+      <c r="EF27">
+        <v>0</v>
+      </c>
+      <c r="EG27">
+        <v>0</v>
+      </c>
+      <c r="EH27">
+        <v>0</v>
+      </c>
+      <c r="EI27">
+        <v>0</v>
+      </c>
+      <c r="EJ27">
+        <v>8</v>
+      </c>
     </row>
-    <row r="28" spans="1:100">
+    <row r="28" spans="1:140">
       <c r="A28">
         <v>8</v>
       </c>
@@ -9454,7 +12697,7 @@
         <v>0</v>
       </c>
       <c r="CD28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CE28">
         <v>2</v>
@@ -9510,8 +12753,128 @@
       <c r="CV28">
         <v>8</v>
       </c>
+      <c r="CW28">
+        <v>0</v>
+      </c>
+      <c r="CX28">
+        <v>0</v>
+      </c>
+      <c r="CY28">
+        <v>0</v>
+      </c>
+      <c r="CZ28">
+        <v>0</v>
+      </c>
+      <c r="DA28">
+        <v>0</v>
+      </c>
+      <c r="DB28">
+        <v>0</v>
+      </c>
+      <c r="DC28">
+        <v>0</v>
+      </c>
+      <c r="DD28">
+        <v>0</v>
+      </c>
+      <c r="DE28">
+        <v>0</v>
+      </c>
+      <c r="DF28">
+        <v>0</v>
+      </c>
+      <c r="DG28">
+        <v>0</v>
+      </c>
+      <c r="DH28">
+        <v>0</v>
+      </c>
+      <c r="DI28">
+        <v>0</v>
+      </c>
+      <c r="DJ28">
+        <v>0</v>
+      </c>
+      <c r="DK28">
+        <v>0</v>
+      </c>
+      <c r="DL28">
+        <v>0</v>
+      </c>
+      <c r="DM28">
+        <v>0</v>
+      </c>
+      <c r="DN28">
+        <v>0</v>
+      </c>
+      <c r="DO28">
+        <v>0</v>
+      </c>
+      <c r="DP28">
+        <v>0</v>
+      </c>
+      <c r="DQ28">
+        <v>0</v>
+      </c>
+      <c r="DR28">
+        <v>0</v>
+      </c>
+      <c r="DS28">
+        <v>0</v>
+      </c>
+      <c r="DT28">
+        <v>0</v>
+      </c>
+      <c r="DU28">
+        <v>0</v>
+      </c>
+      <c r="DV28">
+        <v>0</v>
+      </c>
+      <c r="DW28">
+        <v>0</v>
+      </c>
+      <c r="DX28">
+        <v>0</v>
+      </c>
+      <c r="DY28">
+        <v>0</v>
+      </c>
+      <c r="DZ28">
+        <v>0</v>
+      </c>
+      <c r="EA28">
+        <v>0</v>
+      </c>
+      <c r="EB28">
+        <v>0</v>
+      </c>
+      <c r="EC28">
+        <v>0</v>
+      </c>
+      <c r="ED28">
+        <v>0</v>
+      </c>
+      <c r="EE28">
+        <v>0</v>
+      </c>
+      <c r="EF28">
+        <v>0</v>
+      </c>
+      <c r="EG28">
+        <v>0</v>
+      </c>
+      <c r="EH28">
+        <v>0</v>
+      </c>
+      <c r="EI28">
+        <v>0</v>
+      </c>
+      <c r="EJ28">
+        <v>8</v>
+      </c>
     </row>
-    <row r="29" spans="1:100">
+    <row r="29" spans="1:140">
       <c r="A29">
         <v>8</v>
       </c>
@@ -9812,8 +13175,128 @@
       <c r="CV29">
         <v>8</v>
       </c>
+      <c r="CW29">
+        <v>0</v>
+      </c>
+      <c r="CX29">
+        <v>0</v>
+      </c>
+      <c r="CY29">
+        <v>0</v>
+      </c>
+      <c r="CZ29">
+        <v>0</v>
+      </c>
+      <c r="DA29">
+        <v>0</v>
+      </c>
+      <c r="DB29">
+        <v>0</v>
+      </c>
+      <c r="DC29">
+        <v>0</v>
+      </c>
+      <c r="DD29">
+        <v>0</v>
+      </c>
+      <c r="DE29">
+        <v>0</v>
+      </c>
+      <c r="DF29">
+        <v>0</v>
+      </c>
+      <c r="DG29">
+        <v>0</v>
+      </c>
+      <c r="DH29">
+        <v>0</v>
+      </c>
+      <c r="DI29">
+        <v>0</v>
+      </c>
+      <c r="DJ29">
+        <v>0</v>
+      </c>
+      <c r="DK29">
+        <v>0</v>
+      </c>
+      <c r="DL29">
+        <v>0</v>
+      </c>
+      <c r="DM29">
+        <v>0</v>
+      </c>
+      <c r="DN29">
+        <v>0</v>
+      </c>
+      <c r="DO29">
+        <v>0</v>
+      </c>
+      <c r="DP29">
+        <v>0</v>
+      </c>
+      <c r="DQ29">
+        <v>0</v>
+      </c>
+      <c r="DR29">
+        <v>0</v>
+      </c>
+      <c r="DS29">
+        <v>0</v>
+      </c>
+      <c r="DT29">
+        <v>0</v>
+      </c>
+      <c r="DU29">
+        <v>0</v>
+      </c>
+      <c r="DV29">
+        <v>0</v>
+      </c>
+      <c r="DW29">
+        <v>0</v>
+      </c>
+      <c r="DX29">
+        <v>0</v>
+      </c>
+      <c r="DY29">
+        <v>0</v>
+      </c>
+      <c r="DZ29">
+        <v>0</v>
+      </c>
+      <c r="EA29">
+        <v>0</v>
+      </c>
+      <c r="EB29">
+        <v>0</v>
+      </c>
+      <c r="EC29">
+        <v>0</v>
+      </c>
+      <c r="ED29">
+        <v>0</v>
+      </c>
+      <c r="EE29">
+        <v>0</v>
+      </c>
+      <c r="EF29">
+        <v>0</v>
+      </c>
+      <c r="EG29">
+        <v>0</v>
+      </c>
+      <c r="EH29">
+        <v>0</v>
+      </c>
+      <c r="EI29">
+        <v>9</v>
+      </c>
+      <c r="EJ29">
+        <v>8</v>
+      </c>
     </row>
-    <row r="30" spans="1:100">
+    <row r="30" spans="1:140">
       <c r="A30">
         <v>8</v>
       </c>
@@ -10114,8 +13597,128 @@
       <c r="CV30">
         <v>8</v>
       </c>
+      <c r="CW30">
+        <v>0</v>
+      </c>
+      <c r="CX30">
+        <v>0</v>
+      </c>
+      <c r="CY30">
+        <v>0</v>
+      </c>
+      <c r="CZ30">
+        <v>0</v>
+      </c>
+      <c r="DA30">
+        <v>0</v>
+      </c>
+      <c r="DB30">
+        <v>0</v>
+      </c>
+      <c r="DC30">
+        <v>0</v>
+      </c>
+      <c r="DD30">
+        <v>0</v>
+      </c>
+      <c r="DE30">
+        <v>0</v>
+      </c>
+      <c r="DF30">
+        <v>0</v>
+      </c>
+      <c r="DG30">
+        <v>0</v>
+      </c>
+      <c r="DH30">
+        <v>0</v>
+      </c>
+      <c r="DI30">
+        <v>0</v>
+      </c>
+      <c r="DJ30">
+        <v>0</v>
+      </c>
+      <c r="DK30">
+        <v>0</v>
+      </c>
+      <c r="DL30">
+        <v>0</v>
+      </c>
+      <c r="DM30">
+        <v>0</v>
+      </c>
+      <c r="DN30">
+        <v>0</v>
+      </c>
+      <c r="DO30">
+        <v>0</v>
+      </c>
+      <c r="DP30">
+        <v>0</v>
+      </c>
+      <c r="DQ30">
+        <v>0</v>
+      </c>
+      <c r="DR30">
+        <v>0</v>
+      </c>
+      <c r="DS30">
+        <v>0</v>
+      </c>
+      <c r="DT30">
+        <v>0</v>
+      </c>
+      <c r="DU30">
+        <v>0</v>
+      </c>
+      <c r="DV30">
+        <v>0</v>
+      </c>
+      <c r="DW30">
+        <v>0</v>
+      </c>
+      <c r="DX30">
+        <v>0</v>
+      </c>
+      <c r="DY30">
+        <v>0</v>
+      </c>
+      <c r="DZ30">
+        <v>0</v>
+      </c>
+      <c r="EA30">
+        <v>0</v>
+      </c>
+      <c r="EB30">
+        <v>0</v>
+      </c>
+      <c r="EC30">
+        <v>0</v>
+      </c>
+      <c r="ED30">
+        <v>0</v>
+      </c>
+      <c r="EE30">
+        <v>0</v>
+      </c>
+      <c r="EF30">
+        <v>0</v>
+      </c>
+      <c r="EG30">
+        <v>0</v>
+      </c>
+      <c r="EH30">
+        <v>0</v>
+      </c>
+      <c r="EI30">
+        <v>9</v>
+      </c>
+      <c r="EJ30">
+        <v>8</v>
+      </c>
     </row>
-    <row r="31" spans="1:100">
+    <row r="31" spans="1:140">
       <c r="A31">
         <v>8</v>
       </c>
@@ -10416,8 +14019,128 @@
       <c r="CV31">
         <v>8</v>
       </c>
+      <c r="CW31">
+        <v>0</v>
+      </c>
+      <c r="CX31">
+        <v>0</v>
+      </c>
+      <c r="CY31">
+        <v>0</v>
+      </c>
+      <c r="CZ31">
+        <v>0</v>
+      </c>
+      <c r="DA31">
+        <v>0</v>
+      </c>
+      <c r="DB31">
+        <v>0</v>
+      </c>
+      <c r="DC31">
+        <v>0</v>
+      </c>
+      <c r="DD31">
+        <v>0</v>
+      </c>
+      <c r="DE31">
+        <v>0</v>
+      </c>
+      <c r="DF31">
+        <v>0</v>
+      </c>
+      <c r="DG31">
+        <v>0</v>
+      </c>
+      <c r="DH31">
+        <v>0</v>
+      </c>
+      <c r="DI31">
+        <v>0</v>
+      </c>
+      <c r="DJ31">
+        <v>0</v>
+      </c>
+      <c r="DK31">
+        <v>0</v>
+      </c>
+      <c r="DL31">
+        <v>0</v>
+      </c>
+      <c r="DM31">
+        <v>0</v>
+      </c>
+      <c r="DN31">
+        <v>0</v>
+      </c>
+      <c r="DO31">
+        <v>0</v>
+      </c>
+      <c r="DP31">
+        <v>0</v>
+      </c>
+      <c r="DQ31">
+        <v>0</v>
+      </c>
+      <c r="DR31">
+        <v>0</v>
+      </c>
+      <c r="DS31">
+        <v>0</v>
+      </c>
+      <c r="DT31">
+        <v>0</v>
+      </c>
+      <c r="DU31">
+        <v>0</v>
+      </c>
+      <c r="DV31">
+        <v>0</v>
+      </c>
+      <c r="DW31">
+        <v>0</v>
+      </c>
+      <c r="DX31">
+        <v>0</v>
+      </c>
+      <c r="DY31">
+        <v>0</v>
+      </c>
+      <c r="DZ31">
+        <v>0</v>
+      </c>
+      <c r="EA31">
+        <v>0</v>
+      </c>
+      <c r="EB31">
+        <v>0</v>
+      </c>
+      <c r="EC31">
+        <v>0</v>
+      </c>
+      <c r="ED31">
+        <v>0</v>
+      </c>
+      <c r="EE31">
+        <v>0</v>
+      </c>
+      <c r="EF31">
+        <v>0</v>
+      </c>
+      <c r="EG31">
+        <v>0</v>
+      </c>
+      <c r="EH31">
+        <v>9</v>
+      </c>
+      <c r="EI31">
+        <v>9</v>
+      </c>
+      <c r="EJ31">
+        <v>8</v>
+      </c>
     </row>
-    <row r="32" spans="1:100">
+    <row r="32" spans="1:140">
       <c r="A32">
         <v>8</v>
       </c>
@@ -10718,8 +14441,128 @@
       <c r="CV32">
         <v>8</v>
       </c>
+      <c r="CW32">
+        <v>0</v>
+      </c>
+      <c r="CX32">
+        <v>0</v>
+      </c>
+      <c r="CY32">
+        <v>0</v>
+      </c>
+      <c r="CZ32">
+        <v>0</v>
+      </c>
+      <c r="DA32">
+        <v>0</v>
+      </c>
+      <c r="DB32">
+        <v>0</v>
+      </c>
+      <c r="DC32">
+        <v>0</v>
+      </c>
+      <c r="DD32">
+        <v>0</v>
+      </c>
+      <c r="DE32">
+        <v>0</v>
+      </c>
+      <c r="DF32">
+        <v>0</v>
+      </c>
+      <c r="DG32">
+        <v>0</v>
+      </c>
+      <c r="DH32">
+        <v>0</v>
+      </c>
+      <c r="DI32">
+        <v>0</v>
+      </c>
+      <c r="DJ32">
+        <v>0</v>
+      </c>
+      <c r="DK32">
+        <v>0</v>
+      </c>
+      <c r="DL32">
+        <v>0</v>
+      </c>
+      <c r="DM32">
+        <v>0</v>
+      </c>
+      <c r="DN32">
+        <v>0</v>
+      </c>
+      <c r="DO32">
+        <v>0</v>
+      </c>
+      <c r="DP32">
+        <v>0</v>
+      </c>
+      <c r="DQ32">
+        <v>0</v>
+      </c>
+      <c r="DR32">
+        <v>0</v>
+      </c>
+      <c r="DS32">
+        <v>0</v>
+      </c>
+      <c r="DT32">
+        <v>0</v>
+      </c>
+      <c r="DU32">
+        <v>0</v>
+      </c>
+      <c r="DV32">
+        <v>0</v>
+      </c>
+      <c r="DW32">
+        <v>0</v>
+      </c>
+      <c r="DX32">
+        <v>0</v>
+      </c>
+      <c r="DY32">
+        <v>4</v>
+      </c>
+      <c r="DZ32">
+        <v>4</v>
+      </c>
+      <c r="EA32">
+        <v>4</v>
+      </c>
+      <c r="EB32">
+        <v>4</v>
+      </c>
+      <c r="EC32">
+        <v>4</v>
+      </c>
+      <c r="ED32">
+        <v>4</v>
+      </c>
+      <c r="EE32">
+        <v>4</v>
+      </c>
+      <c r="EF32">
+        <v>4</v>
+      </c>
+      <c r="EG32">
+        <v>9</v>
+      </c>
+      <c r="EH32">
+        <v>9</v>
+      </c>
+      <c r="EI32">
+        <v>9</v>
+      </c>
+      <c r="EJ32">
+        <v>8</v>
+      </c>
     </row>
-    <row r="33" spans="1:100">
+    <row r="33" spans="1:140">
       <c r="A33">
         <v>8</v>
       </c>
@@ -11020,8 +14863,128 @@
       <c r="CV33">
         <v>8</v>
       </c>
+      <c r="CW33">
+        <v>0</v>
+      </c>
+      <c r="CX33">
+        <v>0</v>
+      </c>
+      <c r="CY33">
+        <v>0</v>
+      </c>
+      <c r="CZ33">
+        <v>0</v>
+      </c>
+      <c r="DA33">
+        <v>0</v>
+      </c>
+      <c r="DB33">
+        <v>0</v>
+      </c>
+      <c r="DC33">
+        <v>0</v>
+      </c>
+      <c r="DD33">
+        <v>0</v>
+      </c>
+      <c r="DE33">
+        <v>0</v>
+      </c>
+      <c r="DF33">
+        <v>0</v>
+      </c>
+      <c r="DG33">
+        <v>0</v>
+      </c>
+      <c r="DH33">
+        <v>0</v>
+      </c>
+      <c r="DI33">
+        <v>0</v>
+      </c>
+      <c r="DJ33">
+        <v>0</v>
+      </c>
+      <c r="DK33">
+        <v>0</v>
+      </c>
+      <c r="DL33">
+        <v>0</v>
+      </c>
+      <c r="DM33">
+        <v>0</v>
+      </c>
+      <c r="DN33">
+        <v>0</v>
+      </c>
+      <c r="DO33">
+        <v>0</v>
+      </c>
+      <c r="DP33">
+        <v>0</v>
+      </c>
+      <c r="DQ33">
+        <v>0</v>
+      </c>
+      <c r="DR33">
+        <v>0</v>
+      </c>
+      <c r="DS33">
+        <v>7</v>
+      </c>
+      <c r="DT33">
+        <v>7</v>
+      </c>
+      <c r="DU33">
+        <v>7</v>
+      </c>
+      <c r="DV33">
+        <v>7</v>
+      </c>
+      <c r="DW33">
+        <v>7</v>
+      </c>
+      <c r="DX33">
+        <v>7</v>
+      </c>
+      <c r="DY33">
+        <v>7</v>
+      </c>
+      <c r="DZ33">
+        <v>7</v>
+      </c>
+      <c r="EA33">
+        <v>7</v>
+      </c>
+      <c r="EB33">
+        <v>7</v>
+      </c>
+      <c r="EC33">
+        <v>7</v>
+      </c>
+      <c r="ED33">
+        <v>7</v>
+      </c>
+      <c r="EE33">
+        <v>7</v>
+      </c>
+      <c r="EF33">
+        <v>7</v>
+      </c>
+      <c r="EG33">
+        <v>7</v>
+      </c>
+      <c r="EH33">
+        <v>7</v>
+      </c>
+      <c r="EI33">
+        <v>7</v>
+      </c>
+      <c r="EJ33">
+        <v>8</v>
+      </c>
     </row>
-    <row r="34" spans="1:100">
+    <row r="34" spans="1:140">
       <c r="A34">
         <v>8</v>
       </c>
@@ -11322,8 +15285,128 @@
       <c r="CV34">
         <v>8</v>
       </c>
+      <c r="CW34">
+        <v>0</v>
+      </c>
+      <c r="CX34">
+        <v>0</v>
+      </c>
+      <c r="CY34">
+        <v>0</v>
+      </c>
+      <c r="CZ34">
+        <v>0</v>
+      </c>
+      <c r="DA34">
+        <v>0</v>
+      </c>
+      <c r="DB34">
+        <v>0</v>
+      </c>
+      <c r="DC34">
+        <v>0</v>
+      </c>
+      <c r="DD34">
+        <v>0</v>
+      </c>
+      <c r="DE34">
+        <v>0</v>
+      </c>
+      <c r="DF34">
+        <v>0</v>
+      </c>
+      <c r="DG34">
+        <v>0</v>
+      </c>
+      <c r="DH34">
+        <v>0</v>
+      </c>
+      <c r="DI34">
+        <v>0</v>
+      </c>
+      <c r="DJ34">
+        <v>0</v>
+      </c>
+      <c r="DK34">
+        <v>0</v>
+      </c>
+      <c r="DL34">
+        <v>0</v>
+      </c>
+      <c r="DM34">
+        <v>0</v>
+      </c>
+      <c r="DN34">
+        <v>0</v>
+      </c>
+      <c r="DO34">
+        <v>0</v>
+      </c>
+      <c r="DP34">
+        <v>0</v>
+      </c>
+      <c r="DQ34">
+        <v>0</v>
+      </c>
+      <c r="DR34">
+        <v>7</v>
+      </c>
+      <c r="DS34">
+        <v>6</v>
+      </c>
+      <c r="DT34">
+        <v>6</v>
+      </c>
+      <c r="DU34">
+        <v>6</v>
+      </c>
+      <c r="DV34">
+        <v>6</v>
+      </c>
+      <c r="DW34">
+        <v>6</v>
+      </c>
+      <c r="DX34">
+        <v>6</v>
+      </c>
+      <c r="DY34">
+        <v>6</v>
+      </c>
+      <c r="DZ34">
+        <v>6</v>
+      </c>
+      <c r="EA34">
+        <v>6</v>
+      </c>
+      <c r="EB34">
+        <v>6</v>
+      </c>
+      <c r="EC34">
+        <v>6</v>
+      </c>
+      <c r="ED34">
+        <v>6</v>
+      </c>
+      <c r="EE34">
+        <v>6</v>
+      </c>
+      <c r="EF34">
+        <v>6</v>
+      </c>
+      <c r="EG34">
+        <v>6</v>
+      </c>
+      <c r="EH34">
+        <v>6</v>
+      </c>
+      <c r="EI34">
+        <v>6</v>
+      </c>
+      <c r="EJ34">
+        <v>8</v>
+      </c>
     </row>
-    <row r="35" spans="1:100">
+    <row r="35" spans="1:140">
       <c r="A35">
         <v>8</v>
       </c>
@@ -11624,8 +15707,128 @@
       <c r="CV35">
         <v>8</v>
       </c>
+      <c r="CW35">
+        <v>9</v>
+      </c>
+      <c r="CX35">
+        <v>0</v>
+      </c>
+      <c r="CY35">
+        <v>0</v>
+      </c>
+      <c r="CZ35">
+        <v>0</v>
+      </c>
+      <c r="DA35">
+        <v>0</v>
+      </c>
+      <c r="DB35">
+        <v>0</v>
+      </c>
+      <c r="DC35">
+        <v>0</v>
+      </c>
+      <c r="DD35">
+        <v>0</v>
+      </c>
+      <c r="DE35">
+        <v>0</v>
+      </c>
+      <c r="DF35">
+        <v>0</v>
+      </c>
+      <c r="DG35">
+        <v>0</v>
+      </c>
+      <c r="DH35">
+        <v>0</v>
+      </c>
+      <c r="DI35">
+        <v>13</v>
+      </c>
+      <c r="DJ35">
+        <v>0</v>
+      </c>
+      <c r="DK35">
+        <v>0</v>
+      </c>
+      <c r="DL35">
+        <v>0</v>
+      </c>
+      <c r="DM35">
+        <v>0</v>
+      </c>
+      <c r="DN35">
+        <v>0</v>
+      </c>
+      <c r="DO35">
+        <v>0</v>
+      </c>
+      <c r="DP35">
+        <v>0</v>
+      </c>
+      <c r="DQ35">
+        <v>0</v>
+      </c>
+      <c r="DR35">
+        <v>0</v>
+      </c>
+      <c r="DS35">
+        <v>0</v>
+      </c>
+      <c r="DT35">
+        <v>0</v>
+      </c>
+      <c r="DU35">
+        <v>0</v>
+      </c>
+      <c r="DV35">
+        <v>0</v>
+      </c>
+      <c r="DW35">
+        <v>0</v>
+      </c>
+      <c r="DX35">
+        <v>0</v>
+      </c>
+      <c r="DY35">
+        <v>0</v>
+      </c>
+      <c r="DZ35">
+        <v>0</v>
+      </c>
+      <c r="EA35">
+        <v>0</v>
+      </c>
+      <c r="EB35">
+        <v>0</v>
+      </c>
+      <c r="EC35">
+        <v>0</v>
+      </c>
+      <c r="ED35">
+        <v>0</v>
+      </c>
+      <c r="EE35">
+        <v>0</v>
+      </c>
+      <c r="EF35">
+        <v>0</v>
+      </c>
+      <c r="EG35">
+        <v>0</v>
+      </c>
+      <c r="EH35">
+        <v>0</v>
+      </c>
+      <c r="EI35">
+        <v>0</v>
+      </c>
+      <c r="EJ35">
+        <v>8</v>
+      </c>
     </row>
-    <row r="36" spans="1:100">
+    <row r="36" spans="1:140">
       <c r="A36">
         <v>8</v>
       </c>
@@ -11926,8 +16129,128 @@
       <c r="CV36">
         <v>8</v>
       </c>
+      <c r="CW36">
+        <v>9</v>
+      </c>
+      <c r="CX36">
+        <v>9</v>
+      </c>
+      <c r="CY36">
+        <v>0</v>
+      </c>
+      <c r="CZ36">
+        <v>0</v>
+      </c>
+      <c r="DA36">
+        <v>0</v>
+      </c>
+      <c r="DB36">
+        <v>0</v>
+      </c>
+      <c r="DC36">
+        <v>0</v>
+      </c>
+      <c r="DD36">
+        <v>0</v>
+      </c>
+      <c r="DE36">
+        <v>0</v>
+      </c>
+      <c r="DF36">
+        <v>0</v>
+      </c>
+      <c r="DG36">
+        <v>0</v>
+      </c>
+      <c r="DH36">
+        <v>0</v>
+      </c>
+      <c r="DI36">
+        <v>0</v>
+      </c>
+      <c r="DJ36">
+        <v>0</v>
+      </c>
+      <c r="DK36">
+        <v>0</v>
+      </c>
+      <c r="DL36">
+        <v>0</v>
+      </c>
+      <c r="DM36">
+        <v>0</v>
+      </c>
+      <c r="DN36">
+        <v>0</v>
+      </c>
+      <c r="DO36">
+        <v>0</v>
+      </c>
+      <c r="DP36">
+        <v>0</v>
+      </c>
+      <c r="DQ36">
+        <v>0</v>
+      </c>
+      <c r="DR36">
+        <v>0</v>
+      </c>
+      <c r="DS36">
+        <v>0</v>
+      </c>
+      <c r="DT36">
+        <v>0</v>
+      </c>
+      <c r="DU36">
+        <v>0</v>
+      </c>
+      <c r="DV36">
+        <v>0</v>
+      </c>
+      <c r="DW36">
+        <v>0</v>
+      </c>
+      <c r="DX36">
+        <v>0</v>
+      </c>
+      <c r="DY36">
+        <v>0</v>
+      </c>
+      <c r="DZ36">
+        <v>0</v>
+      </c>
+      <c r="EA36">
+        <v>0</v>
+      </c>
+      <c r="EB36">
+        <v>0</v>
+      </c>
+      <c r="EC36">
+        <v>0</v>
+      </c>
+      <c r="ED36">
+        <v>0</v>
+      </c>
+      <c r="EE36">
+        <v>0</v>
+      </c>
+      <c r="EF36">
+        <v>0</v>
+      </c>
+      <c r="EG36">
+        <v>0</v>
+      </c>
+      <c r="EH36">
+        <v>0</v>
+      </c>
+      <c r="EI36">
+        <v>0</v>
+      </c>
+      <c r="EJ36">
+        <v>8</v>
+      </c>
     </row>
-    <row r="37" spans="1:100">
+    <row r="37" spans="1:140">
       <c r="A37">
         <v>8</v>
       </c>
@@ -12085,7 +16408,7 @@
         <v>0</v>
       </c>
       <c r="BA37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BB37">
         <v>4</v>
@@ -12228,8 +16551,128 @@
       <c r="CV37">
         <v>8</v>
       </c>
+      <c r="CW37">
+        <v>9</v>
+      </c>
+      <c r="CX37">
+        <v>9</v>
+      </c>
+      <c r="CY37">
+        <v>9</v>
+      </c>
+      <c r="CZ37">
+        <v>0</v>
+      </c>
+      <c r="DA37">
+        <v>0</v>
+      </c>
+      <c r="DB37">
+        <v>0</v>
+      </c>
+      <c r="DC37">
+        <v>0</v>
+      </c>
+      <c r="DD37">
+        <v>0</v>
+      </c>
+      <c r="DE37">
+        <v>0</v>
+      </c>
+      <c r="DF37">
+        <v>0</v>
+      </c>
+      <c r="DG37">
+        <v>0</v>
+      </c>
+      <c r="DH37">
+        <v>0</v>
+      </c>
+      <c r="DI37">
+        <v>0</v>
+      </c>
+      <c r="DJ37">
+        <v>0</v>
+      </c>
+      <c r="DK37">
+        <v>0</v>
+      </c>
+      <c r="DL37">
+        <v>0</v>
+      </c>
+      <c r="DM37">
+        <v>0</v>
+      </c>
+      <c r="DN37">
+        <v>0</v>
+      </c>
+      <c r="DO37">
+        <v>0</v>
+      </c>
+      <c r="DP37">
+        <v>0</v>
+      </c>
+      <c r="DQ37">
+        <v>0</v>
+      </c>
+      <c r="DR37">
+        <v>0</v>
+      </c>
+      <c r="DS37">
+        <v>0</v>
+      </c>
+      <c r="DT37">
+        <v>0</v>
+      </c>
+      <c r="DU37">
+        <v>0</v>
+      </c>
+      <c r="DV37">
+        <v>0</v>
+      </c>
+      <c r="DW37">
+        <v>0</v>
+      </c>
+      <c r="DX37">
+        <v>0</v>
+      </c>
+      <c r="DY37">
+        <v>0</v>
+      </c>
+      <c r="DZ37">
+        <v>0</v>
+      </c>
+      <c r="EA37">
+        <v>0</v>
+      </c>
+      <c r="EB37">
+        <v>0</v>
+      </c>
+      <c r="EC37">
+        <v>0</v>
+      </c>
+      <c r="ED37">
+        <v>0</v>
+      </c>
+      <c r="EE37">
+        <v>0</v>
+      </c>
+      <c r="EF37">
+        <v>0</v>
+      </c>
+      <c r="EG37">
+        <v>0</v>
+      </c>
+      <c r="EH37">
+        <v>0</v>
+      </c>
+      <c r="EI37">
+        <v>0</v>
+      </c>
+      <c r="EJ37">
+        <v>8</v>
+      </c>
     </row>
-    <row r="38" spans="1:100">
+    <row r="38" spans="1:140">
       <c r="A38">
         <v>8</v>
       </c>
@@ -12530,8 +16973,128 @@
       <c r="CV38">
         <v>8</v>
       </c>
+      <c r="CW38">
+        <v>8</v>
+      </c>
+      <c r="CX38">
+        <v>8</v>
+      </c>
+      <c r="CY38">
+        <v>8</v>
+      </c>
+      <c r="CZ38">
+        <v>8</v>
+      </c>
+      <c r="DA38">
+        <v>8</v>
+      </c>
+      <c r="DB38">
+        <v>8</v>
+      </c>
+      <c r="DC38">
+        <v>8</v>
+      </c>
+      <c r="DD38">
+        <v>8</v>
+      </c>
+      <c r="DE38">
+        <v>8</v>
+      </c>
+      <c r="DF38">
+        <v>8</v>
+      </c>
+      <c r="DG38">
+        <v>8</v>
+      </c>
+      <c r="DH38">
+        <v>8</v>
+      </c>
+      <c r="DI38">
+        <v>8</v>
+      </c>
+      <c r="DJ38">
+        <v>8</v>
+      </c>
+      <c r="DK38">
+        <v>8</v>
+      </c>
+      <c r="DL38">
+        <v>8</v>
+      </c>
+      <c r="DM38">
+        <v>8</v>
+      </c>
+      <c r="DN38">
+        <v>0</v>
+      </c>
+      <c r="DO38">
+        <v>0</v>
+      </c>
+      <c r="DP38">
+        <v>0</v>
+      </c>
+      <c r="DQ38">
+        <v>0</v>
+      </c>
+      <c r="DR38">
+        <v>0</v>
+      </c>
+      <c r="DS38">
+        <v>0</v>
+      </c>
+      <c r="DT38">
+        <v>0</v>
+      </c>
+      <c r="DU38">
+        <v>0</v>
+      </c>
+      <c r="DV38">
+        <v>0</v>
+      </c>
+      <c r="DW38">
+        <v>0</v>
+      </c>
+      <c r="DX38">
+        <v>0</v>
+      </c>
+      <c r="DY38">
+        <v>0</v>
+      </c>
+      <c r="DZ38">
+        <v>0</v>
+      </c>
+      <c r="EA38">
+        <v>0</v>
+      </c>
+      <c r="EB38">
+        <v>0</v>
+      </c>
+      <c r="EC38">
+        <v>0</v>
+      </c>
+      <c r="ED38">
+        <v>0</v>
+      </c>
+      <c r="EE38">
+        <v>0</v>
+      </c>
+      <c r="EF38">
+        <v>0</v>
+      </c>
+      <c r="EG38">
+        <v>0</v>
+      </c>
+      <c r="EH38">
+        <v>0</v>
+      </c>
+      <c r="EI38">
+        <v>0</v>
+      </c>
+      <c r="EJ38">
+        <v>8</v>
+      </c>
     </row>
-    <row r="39" spans="1:100">
+    <row r="39" spans="1:140">
       <c r="A39">
         <v>8</v>
       </c>
@@ -12832,8 +17395,128 @@
       <c r="CV39">
         <v>8</v>
       </c>
+      <c r="CW39">
+        <v>0</v>
+      </c>
+      <c r="CX39">
+        <v>0</v>
+      </c>
+      <c r="CY39">
+        <v>0</v>
+      </c>
+      <c r="CZ39">
+        <v>0</v>
+      </c>
+      <c r="DA39">
+        <v>0</v>
+      </c>
+      <c r="DB39">
+        <v>0</v>
+      </c>
+      <c r="DC39">
+        <v>0</v>
+      </c>
+      <c r="DD39">
+        <v>0</v>
+      </c>
+      <c r="DE39">
+        <v>0</v>
+      </c>
+      <c r="DF39">
+        <v>0</v>
+      </c>
+      <c r="DG39">
+        <v>0</v>
+      </c>
+      <c r="DH39">
+        <v>0</v>
+      </c>
+      <c r="DI39">
+        <v>0</v>
+      </c>
+      <c r="DJ39">
+        <v>0</v>
+      </c>
+      <c r="DK39">
+        <v>0</v>
+      </c>
+      <c r="DL39">
+        <v>0</v>
+      </c>
+      <c r="DM39">
+        <v>0</v>
+      </c>
+      <c r="DN39">
+        <v>0</v>
+      </c>
+      <c r="DO39">
+        <v>0</v>
+      </c>
+      <c r="DP39">
+        <v>0</v>
+      </c>
+      <c r="DQ39">
+        <v>0</v>
+      </c>
+      <c r="DR39">
+        <v>0</v>
+      </c>
+      <c r="DS39">
+        <v>0</v>
+      </c>
+      <c r="DT39">
+        <v>0</v>
+      </c>
+      <c r="DU39">
+        <v>0</v>
+      </c>
+      <c r="DV39">
+        <v>0</v>
+      </c>
+      <c r="DW39">
+        <v>0</v>
+      </c>
+      <c r="DX39">
+        <v>0</v>
+      </c>
+      <c r="DY39">
+        <v>0</v>
+      </c>
+      <c r="DZ39">
+        <v>0</v>
+      </c>
+      <c r="EA39">
+        <v>0</v>
+      </c>
+      <c r="EB39">
+        <v>0</v>
+      </c>
+      <c r="EC39">
+        <v>0</v>
+      </c>
+      <c r="ED39">
+        <v>0</v>
+      </c>
+      <c r="EE39">
+        <v>0</v>
+      </c>
+      <c r="EF39">
+        <v>0</v>
+      </c>
+      <c r="EG39">
+        <v>0</v>
+      </c>
+      <c r="EH39">
+        <v>0</v>
+      </c>
+      <c r="EI39">
+        <v>0</v>
+      </c>
+      <c r="EJ39">
+        <v>8</v>
+      </c>
     </row>
-    <row r="40" spans="1:100">
+    <row r="40" spans="1:140">
       <c r="A40">
         <v>8</v>
       </c>
@@ -13134,8 +17817,128 @@
       <c r="CV40">
         <v>8</v>
       </c>
+      <c r="CW40">
+        <v>0</v>
+      </c>
+      <c r="CX40">
+        <v>0</v>
+      </c>
+      <c r="CY40">
+        <v>0</v>
+      </c>
+      <c r="CZ40">
+        <v>0</v>
+      </c>
+      <c r="DA40">
+        <v>0</v>
+      </c>
+      <c r="DB40">
+        <v>0</v>
+      </c>
+      <c r="DC40">
+        <v>0</v>
+      </c>
+      <c r="DD40">
+        <v>0</v>
+      </c>
+      <c r="DE40">
+        <v>0</v>
+      </c>
+      <c r="DF40">
+        <v>0</v>
+      </c>
+      <c r="DG40">
+        <v>0</v>
+      </c>
+      <c r="DH40">
+        <v>0</v>
+      </c>
+      <c r="DI40">
+        <v>0</v>
+      </c>
+      <c r="DJ40">
+        <v>0</v>
+      </c>
+      <c r="DK40">
+        <v>0</v>
+      </c>
+      <c r="DL40">
+        <v>0</v>
+      </c>
+      <c r="DM40">
+        <v>0</v>
+      </c>
+      <c r="DN40">
+        <v>0</v>
+      </c>
+      <c r="DO40">
+        <v>0</v>
+      </c>
+      <c r="DP40">
+        <v>0</v>
+      </c>
+      <c r="DQ40">
+        <v>0</v>
+      </c>
+      <c r="DR40">
+        <v>0</v>
+      </c>
+      <c r="DS40">
+        <v>0</v>
+      </c>
+      <c r="DT40">
+        <v>0</v>
+      </c>
+      <c r="DU40">
+        <v>0</v>
+      </c>
+      <c r="DV40">
+        <v>0</v>
+      </c>
+      <c r="DW40">
+        <v>0</v>
+      </c>
+      <c r="DX40">
+        <v>0</v>
+      </c>
+      <c r="DY40">
+        <v>0</v>
+      </c>
+      <c r="DZ40">
+        <v>0</v>
+      </c>
+      <c r="EA40">
+        <v>0</v>
+      </c>
+      <c r="EB40">
+        <v>0</v>
+      </c>
+      <c r="EC40">
+        <v>0</v>
+      </c>
+      <c r="ED40">
+        <v>0</v>
+      </c>
+      <c r="EE40">
+        <v>0</v>
+      </c>
+      <c r="EF40">
+        <v>0</v>
+      </c>
+      <c r="EG40">
+        <v>0</v>
+      </c>
+      <c r="EH40">
+        <v>0</v>
+      </c>
+      <c r="EI40">
+        <v>0</v>
+      </c>
+      <c r="EJ40">
+        <v>8</v>
+      </c>
     </row>
-    <row r="41" spans="1:100">
+    <row r="41" spans="1:140">
       <c r="A41">
         <v>8</v>
       </c>
@@ -13436,8 +18239,128 @@
       <c r="CV41">
         <v>8</v>
       </c>
+      <c r="CW41">
+        <v>0</v>
+      </c>
+      <c r="CX41">
+        <v>0</v>
+      </c>
+      <c r="CY41">
+        <v>0</v>
+      </c>
+      <c r="CZ41">
+        <v>0</v>
+      </c>
+      <c r="DA41">
+        <v>0</v>
+      </c>
+      <c r="DB41">
+        <v>0</v>
+      </c>
+      <c r="DC41">
+        <v>0</v>
+      </c>
+      <c r="DD41">
+        <v>0</v>
+      </c>
+      <c r="DE41">
+        <v>0</v>
+      </c>
+      <c r="DF41">
+        <v>0</v>
+      </c>
+      <c r="DG41">
+        <v>0</v>
+      </c>
+      <c r="DH41">
+        <v>0</v>
+      </c>
+      <c r="DI41">
+        <v>0</v>
+      </c>
+      <c r="DJ41">
+        <v>0</v>
+      </c>
+      <c r="DK41">
+        <v>0</v>
+      </c>
+      <c r="DL41">
+        <v>0</v>
+      </c>
+      <c r="DM41">
+        <v>0</v>
+      </c>
+      <c r="DN41">
+        <v>0</v>
+      </c>
+      <c r="DO41">
+        <v>0</v>
+      </c>
+      <c r="DP41">
+        <v>0</v>
+      </c>
+      <c r="DQ41">
+        <v>0</v>
+      </c>
+      <c r="DR41">
+        <v>0</v>
+      </c>
+      <c r="DS41">
+        <v>0</v>
+      </c>
+      <c r="DT41">
+        <v>0</v>
+      </c>
+      <c r="DU41">
+        <v>0</v>
+      </c>
+      <c r="DV41">
+        <v>0</v>
+      </c>
+      <c r="DW41">
+        <v>0</v>
+      </c>
+      <c r="DX41">
+        <v>0</v>
+      </c>
+      <c r="DY41">
+        <v>0</v>
+      </c>
+      <c r="DZ41">
+        <v>0</v>
+      </c>
+      <c r="EA41">
+        <v>0</v>
+      </c>
+      <c r="EB41">
+        <v>0</v>
+      </c>
+      <c r="EC41">
+        <v>0</v>
+      </c>
+      <c r="ED41">
+        <v>0</v>
+      </c>
+      <c r="EE41">
+        <v>0</v>
+      </c>
+      <c r="EF41">
+        <v>0</v>
+      </c>
+      <c r="EG41">
+        <v>0</v>
+      </c>
+      <c r="EH41">
+        <v>0</v>
+      </c>
+      <c r="EI41">
+        <v>0</v>
+      </c>
+      <c r="EJ41">
+        <v>8</v>
+      </c>
     </row>
-    <row r="42" spans="1:100">
+    <row r="42" spans="1:140">
       <c r="A42">
         <v>8</v>
       </c>
@@ -13738,8 +18661,128 @@
       <c r="CV42">
         <v>8</v>
       </c>
+      <c r="CW42">
+        <v>0</v>
+      </c>
+      <c r="CX42">
+        <v>0</v>
+      </c>
+      <c r="CY42">
+        <v>0</v>
+      </c>
+      <c r="CZ42">
+        <v>0</v>
+      </c>
+      <c r="DA42">
+        <v>0</v>
+      </c>
+      <c r="DB42">
+        <v>0</v>
+      </c>
+      <c r="DC42">
+        <v>0</v>
+      </c>
+      <c r="DD42">
+        <v>0</v>
+      </c>
+      <c r="DE42">
+        <v>0</v>
+      </c>
+      <c r="DF42">
+        <v>0</v>
+      </c>
+      <c r="DG42">
+        <v>0</v>
+      </c>
+      <c r="DH42">
+        <v>0</v>
+      </c>
+      <c r="DI42">
+        <v>0</v>
+      </c>
+      <c r="DJ42">
+        <v>0</v>
+      </c>
+      <c r="DK42">
+        <v>0</v>
+      </c>
+      <c r="DL42">
+        <v>0</v>
+      </c>
+      <c r="DM42">
+        <v>0</v>
+      </c>
+      <c r="DN42">
+        <v>0</v>
+      </c>
+      <c r="DO42">
+        <v>0</v>
+      </c>
+      <c r="DP42">
+        <v>0</v>
+      </c>
+      <c r="DQ42">
+        <v>0</v>
+      </c>
+      <c r="DR42">
+        <v>0</v>
+      </c>
+      <c r="DS42">
+        <v>0</v>
+      </c>
+      <c r="DT42">
+        <v>0</v>
+      </c>
+      <c r="DU42">
+        <v>0</v>
+      </c>
+      <c r="DV42">
+        <v>0</v>
+      </c>
+      <c r="DW42">
+        <v>0</v>
+      </c>
+      <c r="DX42">
+        <v>0</v>
+      </c>
+      <c r="DY42">
+        <v>0</v>
+      </c>
+      <c r="DZ42">
+        <v>0</v>
+      </c>
+      <c r="EA42">
+        <v>0</v>
+      </c>
+      <c r="EB42">
+        <v>0</v>
+      </c>
+      <c r="EC42">
+        <v>0</v>
+      </c>
+      <c r="ED42">
+        <v>0</v>
+      </c>
+      <c r="EE42">
+        <v>0</v>
+      </c>
+      <c r="EF42">
+        <v>0</v>
+      </c>
+      <c r="EG42">
+        <v>0</v>
+      </c>
+      <c r="EH42">
+        <v>0</v>
+      </c>
+      <c r="EI42">
+        <v>0</v>
+      </c>
+      <c r="EJ42">
+        <v>8</v>
+      </c>
     </row>
-    <row r="43" spans="1:100">
+    <row r="43" spans="1:140">
       <c r="A43">
         <v>8</v>
       </c>
@@ -14040,8 +19083,128 @@
       <c r="CV43">
         <v>8</v>
       </c>
+      <c r="CW43">
+        <v>0</v>
+      </c>
+      <c r="CX43">
+        <v>0</v>
+      </c>
+      <c r="CY43">
+        <v>0</v>
+      </c>
+      <c r="CZ43">
+        <v>0</v>
+      </c>
+      <c r="DA43">
+        <v>0</v>
+      </c>
+      <c r="DB43">
+        <v>0</v>
+      </c>
+      <c r="DC43">
+        <v>0</v>
+      </c>
+      <c r="DD43">
+        <v>0</v>
+      </c>
+      <c r="DE43">
+        <v>0</v>
+      </c>
+      <c r="DF43">
+        <v>0</v>
+      </c>
+      <c r="DG43">
+        <v>0</v>
+      </c>
+      <c r="DH43">
+        <v>0</v>
+      </c>
+      <c r="DI43">
+        <v>0</v>
+      </c>
+      <c r="DJ43">
+        <v>0</v>
+      </c>
+      <c r="DK43">
+        <v>0</v>
+      </c>
+      <c r="DL43">
+        <v>0</v>
+      </c>
+      <c r="DM43">
+        <v>0</v>
+      </c>
+      <c r="DN43">
+        <v>0</v>
+      </c>
+      <c r="DO43">
+        <v>0</v>
+      </c>
+      <c r="DP43">
+        <v>0</v>
+      </c>
+      <c r="DQ43">
+        <v>0</v>
+      </c>
+      <c r="DR43">
+        <v>0</v>
+      </c>
+      <c r="DS43">
+        <v>0</v>
+      </c>
+      <c r="DT43">
+        <v>0</v>
+      </c>
+      <c r="DU43">
+        <v>0</v>
+      </c>
+      <c r="DV43">
+        <v>0</v>
+      </c>
+      <c r="DW43">
+        <v>0</v>
+      </c>
+      <c r="DX43">
+        <v>0</v>
+      </c>
+      <c r="DY43">
+        <v>0</v>
+      </c>
+      <c r="DZ43">
+        <v>0</v>
+      </c>
+      <c r="EA43">
+        <v>0</v>
+      </c>
+      <c r="EB43">
+        <v>0</v>
+      </c>
+      <c r="EC43">
+        <v>0</v>
+      </c>
+      <c r="ED43">
+        <v>0</v>
+      </c>
+      <c r="EE43">
+        <v>0</v>
+      </c>
+      <c r="EF43">
+        <v>0</v>
+      </c>
+      <c r="EG43">
+        <v>0</v>
+      </c>
+      <c r="EH43">
+        <v>0</v>
+      </c>
+      <c r="EI43">
+        <v>0</v>
+      </c>
+      <c r="EJ43">
+        <v>8</v>
+      </c>
     </row>
-    <row r="44" spans="1:100">
+    <row r="44" spans="1:140">
       <c r="A44">
         <v>8</v>
       </c>
@@ -14342,8 +19505,128 @@
       <c r="CV44">
         <v>8</v>
       </c>
+      <c r="CW44">
+        <v>0</v>
+      </c>
+      <c r="CX44">
+        <v>0</v>
+      </c>
+      <c r="CY44">
+        <v>0</v>
+      </c>
+      <c r="CZ44">
+        <v>0</v>
+      </c>
+      <c r="DA44">
+        <v>0</v>
+      </c>
+      <c r="DB44">
+        <v>0</v>
+      </c>
+      <c r="DC44">
+        <v>0</v>
+      </c>
+      <c r="DD44">
+        <v>0</v>
+      </c>
+      <c r="DE44">
+        <v>0</v>
+      </c>
+      <c r="DF44">
+        <v>0</v>
+      </c>
+      <c r="DG44">
+        <v>0</v>
+      </c>
+      <c r="DH44">
+        <v>0</v>
+      </c>
+      <c r="DI44">
+        <v>0</v>
+      </c>
+      <c r="DJ44">
+        <v>0</v>
+      </c>
+      <c r="DK44">
+        <v>0</v>
+      </c>
+      <c r="DL44">
+        <v>0</v>
+      </c>
+      <c r="DM44">
+        <v>0</v>
+      </c>
+      <c r="DN44">
+        <v>0</v>
+      </c>
+      <c r="DO44">
+        <v>0</v>
+      </c>
+      <c r="DP44">
+        <v>0</v>
+      </c>
+      <c r="DQ44">
+        <v>0</v>
+      </c>
+      <c r="DR44">
+        <v>0</v>
+      </c>
+      <c r="DS44">
+        <v>0</v>
+      </c>
+      <c r="DT44">
+        <v>0</v>
+      </c>
+      <c r="DU44">
+        <v>0</v>
+      </c>
+      <c r="DV44">
+        <v>0</v>
+      </c>
+      <c r="DW44">
+        <v>0</v>
+      </c>
+      <c r="DX44">
+        <v>0</v>
+      </c>
+      <c r="DY44">
+        <v>0</v>
+      </c>
+      <c r="DZ44">
+        <v>0</v>
+      </c>
+      <c r="EA44">
+        <v>0</v>
+      </c>
+      <c r="EB44">
+        <v>0</v>
+      </c>
+      <c r="EC44">
+        <v>0</v>
+      </c>
+      <c r="ED44">
+        <v>0</v>
+      </c>
+      <c r="EE44">
+        <v>0</v>
+      </c>
+      <c r="EF44">
+        <v>0</v>
+      </c>
+      <c r="EG44">
+        <v>0</v>
+      </c>
+      <c r="EH44">
+        <v>0</v>
+      </c>
+      <c r="EI44">
+        <v>0</v>
+      </c>
+      <c r="EJ44">
+        <v>8</v>
+      </c>
     </row>
-    <row r="45" spans="1:100">
+    <row r="45" spans="1:140">
       <c r="A45">
         <v>8</v>
       </c>
@@ -14642,6 +19925,126 @@
         <v>0</v>
       </c>
       <c r="CV45">
+        <v>8</v>
+      </c>
+      <c r="CW45">
+        <v>8</v>
+      </c>
+      <c r="CX45">
+        <v>8</v>
+      </c>
+      <c r="CY45">
+        <v>8</v>
+      </c>
+      <c r="CZ45">
+        <v>8</v>
+      </c>
+      <c r="DA45">
+        <v>8</v>
+      </c>
+      <c r="DB45">
+        <v>8</v>
+      </c>
+      <c r="DC45">
+        <v>8</v>
+      </c>
+      <c r="DD45">
+        <v>8</v>
+      </c>
+      <c r="DE45">
+        <v>8</v>
+      </c>
+      <c r="DF45">
+        <v>8</v>
+      </c>
+      <c r="DG45">
+        <v>8</v>
+      </c>
+      <c r="DH45">
+        <v>8</v>
+      </c>
+      <c r="DI45">
+        <v>8</v>
+      </c>
+      <c r="DJ45">
+        <v>8</v>
+      </c>
+      <c r="DK45">
+        <v>8</v>
+      </c>
+      <c r="DL45">
+        <v>8</v>
+      </c>
+      <c r="DM45">
+        <v>8</v>
+      </c>
+      <c r="DN45">
+        <v>8</v>
+      </c>
+      <c r="DO45">
+        <v>8</v>
+      </c>
+      <c r="DP45">
+        <v>8</v>
+      </c>
+      <c r="DQ45">
+        <v>8</v>
+      </c>
+      <c r="DR45">
+        <v>8</v>
+      </c>
+      <c r="DS45">
+        <v>8</v>
+      </c>
+      <c r="DT45">
+        <v>8</v>
+      </c>
+      <c r="DU45">
+        <v>8</v>
+      </c>
+      <c r="DV45">
+        <v>8</v>
+      </c>
+      <c r="DW45">
+        <v>8</v>
+      </c>
+      <c r="DX45">
+        <v>8</v>
+      </c>
+      <c r="DY45">
+        <v>8</v>
+      </c>
+      <c r="DZ45">
+        <v>8</v>
+      </c>
+      <c r="EA45">
+        <v>8</v>
+      </c>
+      <c r="EB45">
+        <v>8</v>
+      </c>
+      <c r="EC45">
+        <v>8</v>
+      </c>
+      <c r="ED45">
+        <v>8</v>
+      </c>
+      <c r="EE45">
+        <v>8</v>
+      </c>
+      <c r="EF45">
+        <v>8</v>
+      </c>
+      <c r="EG45">
+        <v>8</v>
+      </c>
+      <c r="EH45">
+        <v>8</v>
+      </c>
+      <c r="EI45">
+        <v>8</v>
+      </c>
+      <c r="EJ45">
         <v>8</v>
       </c>
     </row>
@@ -14657,33 +20060,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="$A1:$XFD1048576">
-    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
-      <formula>6</formula>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
-      <formula>9</formula>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>24</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
-      <formula>4</formula>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
+      <formula>1</formula>
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+      <formula>8</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
-      <formula>8</formula>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="between">
-      <formula>1</formula>
-      <formula>2</formula>
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+      <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
-      <formula>24</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>23</formula>
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+      <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
